--- a/data/hotels_by_city/Dallas/Dallas_shard_699.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_699.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2020 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r567591702-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>223642</t>
+  </si>
+  <si>
+    <t>567591702</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Impeccable Service &amp; Hospitality!</t>
+  </si>
+  <si>
+    <t>My wife &amp; seven of our children stayed here for 3 months, from the 1st week of December thru the 1st week in March. Suzanne, Felicia, Jeff, Heidi &amp; the rest of the staff took great care of us all. They all went above &amp; beyond our expectations. The food service, rooms &amp; property were superb. Everything was super clean &amp; of high quality. Thank you for paying attention to our every need &amp; never missing a fine detail. I would recommend this staff &amp; location to everyone!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r560859564-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>560859564</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Very friendly and accommodating staff. Amazing value.</t>
+  </si>
+  <si>
+    <t>This is 2nd Staybridge I’ve stayed at in 4 months. They’ve convinced me to stay loyal to them from here on out. Clean rooms, friendly staff, great perks, amazing price. Taylor at front desk very nice!!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r533793604-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>533793604</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice weekend stay </t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night and had a great time. The room was clean and nice. Other than being a little tricky to find it was a very nice place and I will definitely stay there again.They have a nice breakfast area but it got really crowded on the Sunday morning but we all made due.The only real complaint was there was no meat at breakfast the lady we asked said the meat was the sausage gravy.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r517820302-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>517820302</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Comfort, convenience and excellent staff</t>
+  </si>
+  <si>
+    <t>I selected the Staybridge Suites in the Los Colinas area because I am an IHG member, I like that area of Dallas and other reviews were positive. I am glad I did. I was very late arriving to check- in (dont ask about long airline delays) and was allocated Rm 345 by a helpful recepionist who clearly explained all I needed to know.My room was more studio than suite but it was very comfortable and functioned perfectly for my needs for work and sleep (great bed!) and the fridge was well used . The air con was needed 24/7 and worked well. It was not noisy and there was no inside or outside noise during my 7 day stay.I used the free shuttle, laundry and had the free breakfast and everything was great. I had a couple of questions that the young lady (weekdays during the day) was always incredibly helpful in answering. Sorry I forgot her name but she really was exceptional.As is clearly explaind in the hotal information there is not a full daily room service but the daily quick refresh was more than adequate and if additional room cleaninging is required it is always given.Staybridge Suites is close to a lot of nice restaurants and the shuttle will take you if needed. The Manager and staff were very friendly when I checked out. Big thumbs upo to Staybridge Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>I selected the Staybridge Suites in the Los Colinas area because I am an IHG member, I like that area of Dallas and other reviews were positive. I am glad I did. I was very late arriving to check- in (dont ask about long airline delays) and was allocated Rm 345 by a helpful recepionist who clearly explained all I needed to know.My room was more studio than suite but it was very comfortable and functioned perfectly for my needs for work and sleep (great bed!) and the fridge was well used . The air con was needed 24/7 and worked well. It was not noisy and there was no inside or outside noise during my 7 day stay.I used the free shuttle, laundry and had the free breakfast and everything was great. I had a couple of questions that the young lady (weekdays during the day) was always incredibly helpful in answering. Sorry I forgot her name but she really was exceptional.As is clearly explaind in the hotal information there is not a full daily room service but the daily quick refresh was more than adequate and if additional room cleaninging is required it is always given.Staybridge Suites is close to a lot of nice restaurants and the shuttle will take you if needed. The Manager and staff were very friendly when I checked out. Big thumbs upo to Staybridge Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r508838941-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>508838941</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>I'm impressed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As someone who stays at Holiday Inn mostly, I was impressed uptown checkin. As IHG members we were given a snack, drinks, AND points. Typically we have to choose between the two amenities. Not sure if this is the hotels doings or our status? Also, was entered in a drawing for 30,000 points!  The room was clean, inviting, and our view of the patio, tennis courts, and pool were nice! </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r505513098-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>505513098</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Looks Nice from Outside but Falls Short of Expectations</t>
+  </si>
+  <si>
+    <t>My family of 4 rated this room a 7… Pulling up this place looks like it’s really nice but once entering the room we found huge stains on the couch and carpet looked dirty. Overall cleanliness was not good. Also we felt breakfast was served kinda late. Good points though were the bedroom was separate from the living room area. Kitchen was small but had enough room with a bar top as your table. I do recommend the hotel add Cajun Crab right up the hill from them to their list of restaurants as the food there was amazing.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>My family of 4 rated this room a 7… Pulling up this place looks like it’s really nice but once entering the room we found huge stains on the couch and carpet looked dirty. Overall cleanliness was not good. Also we felt breakfast was served kinda late. Good points though were the bedroom was separate from the living room area. Kitchen was small but had enough room with a bar top as your table. I do recommend the hotel add Cajun Crab right up the hill from them to their list of restaurants as the food there was amazing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r485642275-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>485642275</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We spent the night here following a day visit to UT Southwestern Medical Center. I'm pretty picky when it comes to hotels, and this Staybridge did not disappoint!  The whole hotel was spotless and very nice. The room was well appointed and clean and had everything one needed to cook, rest, work, or relax in comfort. The outdoor pool and sports area was also very nice!  We will DEFINITELY be staying here again on our trips to Dallas in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>We spent the night here following a day visit to UT Southwestern Medical Center. I'm pretty picky when it comes to hotels, and this Staybridge did not disappoint!  The whole hotel was spotless and very nice. The room was well appointed and clean and had everything one needed to cook, rest, work, or relax in comfort. The outdoor pool and sports area was also very nice!  We will DEFINITELY be staying here again on our trips to Dallas in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r485069967-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>485069967</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Perfect home away from home only nicer</t>
+  </si>
+  <si>
+    <t>The courtyard of this particular place was great with barbecue grill and basketball court and a place for smokers to slope as well. Absolutely perfect for a family reunion's or get-togethers. Enjoy staying here without worry of any kindMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The courtyard of this particular place was great with barbecue grill and basketball court and a place for smokers to slope as well. Absolutely perfect for a family reunion's or get-togethers. Enjoy staying here without worry of any kindMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r483337002-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>483337002</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Last night in USA</t>
+  </si>
+  <si>
+    <t>We found this hotel online as our last stay in US before flying home. It was conveniently only 10-15 minutes to the airport from here. The hotel was in a quiet location with parking outside. Staff were friendly and helpful. Room was very comfortable.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r477611183-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>477611183</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Comfortable hotel in las colinas area</t>
+  </si>
+  <si>
+    <t>Stayed 8 nights on a business trip. I was upgraded to a bigger room so I had a lot of space and the rooms are comfortable.Breakfast is OK on US scale. The fitness room has the minimun set for weight training.Mon-wed there is complimentary food and drinks after work which was nice. Room cleaniness good but the stairwells would need more cleaning.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r471628722-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>471628722</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Amazing!!!</t>
+  </si>
+  <si>
+    <t>I absolutely loved staying here! I was here for two 2 week trips for work and the people who worked here were amazing. They were so accommodating and helpful with everything. I would absolutely recommend staying here if you're going to be in the Las Colinas area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r471238166-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>471238166</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We have stayed here during a business trip for a week and it is a great place to stay in this area! I have been here 4 years ago and went here again and it is still great. Large and comfortable rooms with a great service! Thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r456798442-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>456798442</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Dog-friendly Home Away From Home</t>
+  </si>
+  <si>
+    <t>I spent around 6 months staying at this hotel 5 days per week. I traveled with my dog and I could not have asked for a more enjoyable experience. The staff (from housekeeping to management) were more than accommodating when my schedule would change on short notice. They welcomed me at every check-in and always knew both me and my dog by name. The staff at this hotel made travelling much easier and less stressful. The rooms were always clean and the ameneties were in proper working order. On two occasions I requested a room change because the previous occupant had smoked in the room and the staff accommodated me immediately with no hesitation. The showers didn't always have strong water pressure but this is common at peak shower-times. The free breakfast was freshly cooked and varied daily however it was fairly bland. The evening meal was much the same but at a $0.00 bill it was better than McDonald's most nights. The hotel became my home away from home and I couldn't be more thankful for the staff who went beyond expectations to make me feel welcome and comfortable. I am a loyal StayBridge guest because of this experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>I spent around 6 months staying at this hotel 5 days per week. I traveled with my dog and I could not have asked for a more enjoyable experience. The staff (from housekeeping to management) were more than accommodating when my schedule would change on short notice. They welcomed me at every check-in and always knew both me and my dog by name. The staff at this hotel made travelling much easier and less stressful. The rooms were always clean and the ameneties were in proper working order. On two occasions I requested a room change because the previous occupant had smoked in the room and the staff accommodated me immediately with no hesitation. The showers didn't always have strong water pressure but this is common at peak shower-times. The free breakfast was freshly cooked and varied daily however it was fairly bland. The evening meal was much the same but at a $0.00 bill it was better than McDonald's most nights. The hotel became my home away from home and I couldn't be more thankful for the staff who went beyond expectations to make me feel welcome and comfortable. I am a loyal StayBridge guest because of this experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r454333842-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>454333842</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Great Staff and great stay</t>
+  </si>
+  <si>
+    <t>I recently spent 6 months at this location for business, the staff is down right awesome.  I would like to mention some by name, Shatel, Collin, Taylor and most importantly Heidi, all made our stay fantastic!  Great food at the social hour and everyone went out of their way to make my stay enjoyable.  Congrats to all the staff for being so hospitable and friendly, I will recommend the staybridge to anyone traveling to that area.  Many thanks again, you were awesome!Regards,Gerry BellantMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>I recently spent 6 months at this location for business, the staff is down right awesome.  I would like to mention some by name, Shatel, Collin, Taylor and most importantly Heidi, all made our stay fantastic!  Great food at the social hour and everyone went out of their way to make my stay enjoyable.  Congrats to all the staff for being so hospitable and friendly, I will recommend the staybridge to anyone traveling to that area.  Many thanks again, you were awesome!Regards,Gerry BellantMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r445688158-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>445688158</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Comfy, cozy and awesome!</t>
+  </si>
+  <si>
+    <t>The location was great and close to many stores and gas stations. The room was very clean and looked awesome. The front desk employees were very pleasant, nice and helpful. Thank you for making my stay great! I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>The location was great and close to many stores and gas stations. The room was very clean and looked awesome. The front desk employees were very pleasant, nice and helpful. Thank you for making my stay great! I will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r441934108-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>441934108</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Conveniences of a condo at hotel price!</t>
+  </si>
+  <si>
+    <t>As a family of 6 it becomes more and more difficult to find hotels to accommodate us as the kids get bigger. This was perfect!
+The 2 Br suite had 4 beds including the sofa bed. There was eating &amp; seating space for all of us as well in the living area of the suite. Two full bathrooms was a great bonus. 
+We were in town for a soccer tournament so breakfast was not early enough for the ones who had to be at a game by 7:30 Am but was very enjoyable for the ones who stayed behind. Very tasty hot choices- the kids loved the hashbrown patties &amp; pancakes!
+I loved having a full coffee pot in the room so I could have coffee before the kids were ready to go eat.
+The room could use some updates but was clean &amp; spacious. We were on ground floor on an outside wing &amp; we were amazed how quite it was! Never heard a sound from the hall or above us! The only noise issue we had was the dishwasher that housekeeping had started while we were out... It was so LOUD we could hardly be in the room... But there is a dishwasher!! We had trouble regulating the heat as well but that was only an issue while we were in the living room so not a big deal since we were mainly there to sleep!
+Overall great...As a family of 6 it becomes more and more difficult to find hotels to accommodate us as the kids get bigger. This was perfect!The 2 Br suite had 4 beds including the sofa bed. There was eating &amp; seating space for all of us as well in the living area of the suite. Two full bathrooms was a great bonus. We were in town for a soccer tournament so breakfast was not early enough for the ones who had to be at a game by 7:30 Am but was very enjoyable for the ones who stayed behind. Very tasty hot choices- the kids loved the hashbrown patties &amp; pancakes!I loved having a full coffee pot in the room so I could have coffee before the kids were ready to go eat.The room could use some updates but was clean &amp; spacious. We were on ground floor on an outside wing &amp; we were amazed how quite it was! Never heard a sound from the hall or above us! The only noise issue we had was the dishwasher that housekeeping had started while we were out... It was so LOUD we could hardly be in the room... But there is a dishwasher!! We had trouble regulating the heat as well but that was only an issue while we were in the living room so not a big deal since we were mainly there to sleep!Overall great stay &amp; we would definitely return! The kids want to return when it's not raining so they can utilize the great basketball court &amp; pool! MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>As a family of 6 it becomes more and more difficult to find hotels to accommodate us as the kids get bigger. This was perfect!
+The 2 Br suite had 4 beds including the sofa bed. There was eating &amp; seating space for all of us as well in the living area of the suite. Two full bathrooms was a great bonus. 
+We were in town for a soccer tournament so breakfast was not early enough for the ones who had to be at a game by 7:30 Am but was very enjoyable for the ones who stayed behind. Very tasty hot choices- the kids loved the hashbrown patties &amp; pancakes!
+I loved having a full coffee pot in the room so I could have coffee before the kids were ready to go eat.
+The room could use some updates but was clean &amp; spacious. We were on ground floor on an outside wing &amp; we were amazed how quite it was! Never heard a sound from the hall or above us! The only noise issue we had was the dishwasher that housekeeping had started while we were out... It was so LOUD we could hardly be in the room... But there is a dishwasher!! We had trouble regulating the heat as well but that was only an issue while we were in the living room so not a big deal since we were mainly there to sleep!
+Overall great...As a family of 6 it becomes more and more difficult to find hotels to accommodate us as the kids get bigger. This was perfect!The 2 Br suite had 4 beds including the sofa bed. There was eating &amp; seating space for all of us as well in the living area of the suite. Two full bathrooms was a great bonus. We were in town for a soccer tournament so breakfast was not early enough for the ones who had to be at a game by 7:30 Am but was very enjoyable for the ones who stayed behind. Very tasty hot choices- the kids loved the hashbrown patties &amp; pancakes!I loved having a full coffee pot in the room so I could have coffee before the kids were ready to go eat.The room could use some updates but was clean &amp; spacious. We were on ground floor on an outside wing &amp; we were amazed how quite it was! Never heard a sound from the hall or above us! The only noise issue we had was the dishwasher that housekeeping had started while we were out... It was so LOUD we could hardly be in the room... But there is a dishwasher!! We had trouble regulating the heat as well but that was only an issue while we were in the living room so not a big deal since we were mainly there to sleep!Overall great stay &amp; we would definitely return! The kids want to return when it's not raining so they can utilize the great basketball court &amp; pool! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r440984091-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>440984091</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Cowboys vs Bears game</t>
+  </si>
+  <si>
+    <t>This hotel is a little out of the way, but it's clean and up to date and a great area to be able to walk your dogs.  I've stayed here twice once for business and once for personal.  Opted this hotel due to the safety and the wide open grass area for the dogs to explore.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r438535225-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>438535225</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>2WEEKSSTAY,TX</t>
+  </si>
+  <si>
+    <t>I like this place... their staff does Southern Hospitality at its best.Outside courtyard has bbq area, pool, basketball, and firepit area to lounge in...Specially Mondays to Wednesdays, they offer free hospitality food and beverage... not to mention daily breakfast with multiple choices.I love this place...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r430902423-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>430902423</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Noisy &amp; no sleep</t>
+  </si>
+  <si>
+    <t>Firstly, this hotel is beautiful and welcoming. My husband and I are staying here to celebrate our anniversary together and visit the state Fair. The staff was very friendly and helpful. The beds are comfy and the kitchen is surprisingly very clean, as well as every other aspect of our room. It's top notch.
+HOWEVER, we got ZERO sleep our first night. The guests above us presumably hosted a bowling tournament in their room until about 1:30a.m. and the guests next to us had enough energy to stomp around their room and open and slam every drawer/door in their room repeatedly all while whistling and listening to music. Finally at 3:30a.m. and after multiple attempts to phone the front desk, we dressed and went to the front desk. My husband and I pleaded our case, and the clerk said it would be handled. Satisfied, we headed back to our rooms where captain mcwhistle and his band of door slamming trolls continued to make noise. They finally gave it a rest and about the time we finally get off to sleep our noisy upstairs neighbors decided it was time to get up for breakfast.
+Everything would've been perfect if it weren't for the noise. Hands down would've made for 4 and a half or even 5 stars, but not being able to sleep because we could hear noise that was so loud it made our kitchen rattle...nope, honestly probably deserves one...Firstly, this hotel is beautiful and welcoming. My husband and I are staying here to celebrate our anniversary together and visit the state Fair. The staff was very friendly and helpful. The beds are comfy and the kitchen is surprisingly very clean, as well as every other aspect of our room. It's top notch.HOWEVER, we got ZERO sleep our first night. The guests above us presumably hosted a bowling tournament in their room until about 1:30a.m. and the guests next to us had enough energy to stomp around their room and open and slam every drawer/door in their room repeatedly all while whistling and listening to music. Finally at 3:30a.m. and after multiple attempts to phone the front desk, we dressed and went to the front desk. My husband and I pleaded our case, and the clerk said it would be handled. Satisfied, we headed back to our rooms where captain mcwhistle and his band of door slamming trolls continued to make noise. They finally gave it a rest and about the time we finally get off to sleep our noisy upstairs neighbors decided it was time to get up for breakfast.Everything would've been perfect if it weren't for the noise. Hands down would've made for 4 and a half or even 5 stars, but not being able to sleep because we could hear noise that was so loud it made our kitchen rattle...nope, honestly probably deserves one star.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Firstly, this hotel is beautiful and welcoming. My husband and I are staying here to celebrate our anniversary together and visit the state Fair. The staff was very friendly and helpful. The beds are comfy and the kitchen is surprisingly very clean, as well as every other aspect of our room. It's top notch.
+HOWEVER, we got ZERO sleep our first night. The guests above us presumably hosted a bowling tournament in their room until about 1:30a.m. and the guests next to us had enough energy to stomp around their room and open and slam every drawer/door in their room repeatedly all while whistling and listening to music. Finally at 3:30a.m. and after multiple attempts to phone the front desk, we dressed and went to the front desk. My husband and I pleaded our case, and the clerk said it would be handled. Satisfied, we headed back to our rooms where captain mcwhistle and his band of door slamming trolls continued to make noise. They finally gave it a rest and about the time we finally get off to sleep our noisy upstairs neighbors decided it was time to get up for breakfast.
+Everything would've been perfect if it weren't for the noise. Hands down would've made for 4 and a half or even 5 stars, but not being able to sleep because we could hear noise that was so loud it made our kitchen rattle...nope, honestly probably deserves one...Firstly, this hotel is beautiful and welcoming. My husband and I are staying here to celebrate our anniversary together and visit the state Fair. The staff was very friendly and helpful. The beds are comfy and the kitchen is surprisingly very clean, as well as every other aspect of our room. It's top notch.HOWEVER, we got ZERO sleep our first night. The guests above us presumably hosted a bowling tournament in their room until about 1:30a.m. and the guests next to us had enough energy to stomp around their room and open and slam every drawer/door in their room repeatedly all while whistling and listening to music. Finally at 3:30a.m. and after multiple attempts to phone the front desk, we dressed and went to the front desk. My husband and I pleaded our case, and the clerk said it would be handled. Satisfied, we headed back to our rooms where captain mcwhistle and his band of door slamming trolls continued to make noise. They finally gave it a rest and about the time we finally get off to sleep our noisy upstairs neighbors decided it was time to get up for breakfast.Everything would've been perfect if it weren't for the noise. Hands down would've made for 4 and a half or even 5 stars, but not being able to sleep because we could hear noise that was so loud it made our kitchen rattle...nope, honestly probably deserves one star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r429537361-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>429537361</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Great Choice for Dallas Comic-Con</t>
+  </si>
+  <si>
+    <t>Made a good decision to stay here for Dallas Comic-Con. Would have given 5 stars if it weren't for the unsupportive pillows.Pros:- situated in a modern, safe location (business district) with minimal traffic, and in close proximity to a shopping district with CVS, restaurants, and gas station- daily breakfast options actually better than majority of other chain hotels we've been to (I enjoyed tasty scrambled eggs and potatoes).- well-organized room- ample free parking- within 10 min drive of Irving Convention Center- reasonable price per night- full-sized kitchen- appears to have thick, sound-deadening walls as I could not hear neighbors or people walking outside in the hallwayCons:- unsupportive pillows, had some neck stiffness in the morningMoreShow less</t>
+  </si>
+  <si>
+    <t>Made a good decision to stay here for Dallas Comic-Con. Would have given 5 stars if it weren't for the unsupportive pillows.Pros:- situated in a modern, safe location (business district) with minimal traffic, and in close proximity to a shopping district with CVS, restaurants, and gas station- daily breakfast options actually better than majority of other chain hotels we've been to (I enjoyed tasty scrambled eggs and potatoes).- well-organized room- ample free parking- within 10 min drive of Irving Convention Center- reasonable price per night- full-sized kitchen- appears to have thick, sound-deadening walls as I could not hear neighbors or people walking outside in the hallwayCons:- unsupportive pillows, had some neck stiffness in the morningMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r422850071-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>422850071</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>HS Reunion Trip</t>
+  </si>
+  <si>
+    <t>There were 7 of us for a 3-day weekend.  The rooms are comfortable and suitably equipped for us to relax.  The full-size refrigerator and kitchen area easily accommodated our party needs.  We will probably stay there next time we're all in town together!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>There were 7 of us for a 3-day weekend.  The rooms are comfortable and suitably equipped for us to relax.  The full-size refrigerator and kitchen area easily accommodated our party needs.  We will probably stay there next time we're all in town together!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r415165415-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>415165415</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Best hotel experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic experience. Very nice hotel, with a fantastic staff. The 2 bed room suite was perfect for our family. Super clean and in a very nice area. Had one tv that didn't work but it was fixed immediately. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r405289161-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>405289161</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Family Friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing staff, wonderful rooms.  Got in late... And there were several families whose flight was cancelled needing a last minute room.  The staff even though busy was very accommodating to those folks.  Breakfast bar to die for!  They have everything and more!  Even a social hour in the evening!!!  Highly recommend staying here! </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r404310428-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>404310428</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Heidi is fantastic!</t>
+  </si>
+  <si>
+    <t>you have to stay here! its the best hotel in the area!breakfast is good and the rooms are quiet and comfortable.the best part about this place is the staff...you can tell they love their job and its most likely because the supervisor heidi is so involved and caring.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r401017997-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>401017997</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Great place to spend a night or more</t>
+  </si>
+  <si>
+    <t>Our family stayed here in a two-bedroom suite.  The room was huge and comfortable.  We didn't eat the free breakfast, but it looked really good.  We spent a few hours in the outdoor pool and had a great time there, too.  The staff was courteous and responsive.  If you need ice, just ask and they will let you get ice from the ice maker in the kitchen.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r399392808-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>399392808</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Clean, convenient &amp; pet friendly!</t>
+  </si>
+  <si>
+    <t>Nice hotel in a good central location in the Irving area of greater Dallas. The hotel was clean and comfortable with free parking, complimentary breakfast and wifi. Also, pets are welcome here, which is one of the primary reasons it was chosen for our overnight stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r391567327-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>391567327</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Excellent!!</t>
+  </si>
+  <si>
+    <t>This is a excellent hotel. Very clean. Beautiful inside and out. Free parking. Free Wi-Fi. Free great breakfast. During the week they have a social time with free beer, wine, and food!! Awesome quiet location. Outdoor heated pool in a beautiful landscaped setting. Basketball court! Our room was a one bedroom. Flat screen t.v. in the living room and bedroom. Complete kitchen. We love this about Stay bridge. And last but not least are the employees. Top notch, professional, helpful. Whatever there doing here, its the right way! Great job here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r382076618-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>382076618</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Amazing hotel and staff!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place is great! No complaints! The staff is so friendly and great to come back six months later and same staff at the hotel! When you walk in the hallways in smells so clean! The breakfast in the morning is laid out well and taste great! The pool was so relaxing! Just so excited to know your money was spent well when you stay at this place! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r381377241-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>381377241</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Short, quick visit</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting for a funeral in Dallas. The hotel was very nice and clean. The staff was great and the breakfast was good and hot. The pool area was beautiful although we didnt have time to spend there. Our room was very spacious and my so loved it. Even though its been a while since weve been there my son still tells me that he wants to go back to our 'hotel home'.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r380970117-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>380970117</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Great hotel excellent customer service</t>
+  </si>
+  <si>
+    <t>If you want to stay in a beautiful well maintained hotel in the Irving/Grapevine area this is the place. I was met by Heidi at check in. Great friendly and super nice. After a kind tough day her smiles made my day. She also upgrade me to a two bedroom suite without me requesting one. The room was awesome spacious and smelled great. She invited me to their happy hour between 530 to 7. I went to grab a beer and the shiner bock keg was empty ( plenty of bud light in the other keg,  but who cares when Shiner Bock is in the house). So sad but quickly realized the keg was empty by the staff and the sales manager said hold tight and he sent for bottles of shiner bock. Jeff Parks is the sales manager and knows how to treat his guest. Great customer service. Awesome free dinner of pork chop mash potatoes and mixed veggies with salad and desert. You can go wrong at this great hotel. Thanks a lot Staybridge suites Irving/ Las Colinas. Keep up the greT work. Spire elite member who stays in a 200 plus hotels nights a year. Great job IHG. MoreShow less</t>
+  </si>
+  <si>
+    <t>If you want to stay in a beautiful well maintained hotel in the Irving/Grapevine area this is the place. I was met by Heidi at check in. Great friendly and super nice. After a kind tough day her smiles made my day. She also upgrade me to a two bedroom suite without me requesting one. The room was awesome spacious and smelled great. She invited me to their happy hour between 530 to 7. I went to grab a beer and the shiner bock keg was empty ( plenty of bud light in the other keg,  but who cares when Shiner Bock is in the house). So sad but quickly realized the keg was empty by the staff and the sales manager said hold tight and he sent for bottles of shiner bock. Jeff Parks is the sales manager and knows how to treat his guest. Great customer service. Awesome free dinner of pork chop mash potatoes and mixed veggies with salad and desert. You can go wrong at this great hotel. Thanks a lot Staybridge suites Irving/ Las Colinas. Keep up the greT work. Spire elite member who stays in a 200 plus hotels nights a year. Great job IHG. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r369516322-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>369516322</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>BEWARE  - Asthma and a Smoking Room</t>
+  </si>
+  <si>
+    <t>I will say that the property we visited was a nicely furnished motor inn.  The rooms are set up with a separate bedroom, with nearly a full kitchen and a nice sitting area.  The bed was comfortable.  We would have preferred to have more than two towels, but that was not a big problem. While not in "new" condition, most of the details were very nice.  The free breakfast was decent, and the facility offered nice extras such as apples and peppermints for guests. While we did not use it during our stay, the pool area was very nicely finished in a courtyard type area with awesome landscaping.  Check in was quick and efficient. They have a large sign by the front desk that states "This is a Non-Smoking property".
+My wife suffers from asthma, and takes prescription drugs for the condition daily. We booked this property using a "secret" or "express" deal on one of the booking websites.  When we arrived at our room, we discovered it was a Smoking Room, which the front desk confirmed when I immediately called.  Our room was #304.  Besides being Smoking, it was also about the furthest possible room from the lobby and the least convenient. The hotel apologized, saying they were full and could not do anything about it.  At the time of check-in, there were MANY vacant parking places, so I am very confident other rooms were still unoccupied (though they...I will say that the property we visited was a nicely furnished motor inn.  The rooms are set up with a separate bedroom, with nearly a full kitchen and a nice sitting area.  The bed was comfortable.  We would have preferred to have more than two towels, but that was not a big problem. While not in "new" condition, most of the details were very nice.  The free breakfast was decent, and the facility offered nice extras such as apples and peppermints for guests. While we did not use it during our stay, the pool area was very nicely finished in a courtyard type area with awesome landscaping.  Check in was quick and efficient. They have a large sign by the front desk that states "This is a Non-Smoking property".My wife suffers from asthma, and takes prescription drugs for the condition daily. We booked this property using a "secret" or "express" deal on one of the booking websites.  When we arrived at our room, we discovered it was a Smoking Room, which the front desk confirmed when I immediately called.  Our room was #304.  Besides being Smoking, it was also about the furthest possible room from the lobby and the least convenient. The hotel apologized, saying they were full and could not do anything about it.  At the time of check-in, there were MANY vacant parking places, so I am very confident other rooms were still unoccupied (though they could have been booked and unassigned).  When I went down to the front desk, they presented Staybridge paperwork showing us as "Smoking Preferred".  They blamed this on Priceline, saying they hate Priceline because this sort of thing happens with these reservations so frequently.  I use this service all of the time, and have NEVER been shown as preferring "Smoking" before, so I highly doubt this is true.  While this property is really quite nice and offers a decent, quiet location with acceptable amenities, BEWARE because management lies.  They chose smoking for us, and kept the better rooms (location and non-smoking) for higher paying guests.  They had no concern for my wife's asthmatic condition, and made virtually no attempt to correct the problem. The property is definitely worthy of the 3*, and I would have normally given it a "4".  I just wish that management would have admitted they assigned us smoking for their own financial reasons.  I have filed a dispute with Priceline, and it is pending.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>I will say that the property we visited was a nicely furnished motor inn.  The rooms are set up with a separate bedroom, with nearly a full kitchen and a nice sitting area.  The bed was comfortable.  We would have preferred to have more than two towels, but that was not a big problem. While not in "new" condition, most of the details were very nice.  The free breakfast was decent, and the facility offered nice extras such as apples and peppermints for guests. While we did not use it during our stay, the pool area was very nicely finished in a courtyard type area with awesome landscaping.  Check in was quick and efficient. They have a large sign by the front desk that states "This is a Non-Smoking property".
+My wife suffers from asthma, and takes prescription drugs for the condition daily. We booked this property using a "secret" or "express" deal on one of the booking websites.  When we arrived at our room, we discovered it was a Smoking Room, which the front desk confirmed when I immediately called.  Our room was #304.  Besides being Smoking, it was also about the furthest possible room from the lobby and the least convenient. The hotel apologized, saying they were full and could not do anything about it.  At the time of check-in, there were MANY vacant parking places, so I am very confident other rooms were still unoccupied (though they...I will say that the property we visited was a nicely furnished motor inn.  The rooms are set up with a separate bedroom, with nearly a full kitchen and a nice sitting area.  The bed was comfortable.  We would have preferred to have more than two towels, but that was not a big problem. While not in "new" condition, most of the details were very nice.  The free breakfast was decent, and the facility offered nice extras such as apples and peppermints for guests. While we did not use it during our stay, the pool area was very nicely finished in a courtyard type area with awesome landscaping.  Check in was quick and efficient. They have a large sign by the front desk that states "This is a Non-Smoking property".My wife suffers from asthma, and takes prescription drugs for the condition daily. We booked this property using a "secret" or "express" deal on one of the booking websites.  When we arrived at our room, we discovered it was a Smoking Room, which the front desk confirmed when I immediately called.  Our room was #304.  Besides being Smoking, it was also about the furthest possible room from the lobby and the least convenient. The hotel apologized, saying they were full and could not do anything about it.  At the time of check-in, there were MANY vacant parking places, so I am very confident other rooms were still unoccupied (though they could have been booked and unassigned).  When I went down to the front desk, they presented Staybridge paperwork showing us as "Smoking Preferred".  They blamed this on Priceline, saying they hate Priceline because this sort of thing happens with these reservations so frequently.  I use this service all of the time, and have NEVER been shown as preferring "Smoking" before, so I highly doubt this is true.  While this property is really quite nice and offers a decent, quiet location with acceptable amenities, BEWARE because management lies.  They chose smoking for us, and kept the better rooms (location and non-smoking) for higher paying guests.  They had no concern for my wife's asthmatic condition, and made virtually no attempt to correct the problem. The property is definitely worthy of the 3*, and I would have normally given it a "4".  I just wish that management would have admitted they assigned us smoking for their own financial reasons.  I have filed a dispute with Priceline, and it is pending.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r364493604-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>364493604</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Staff is very friendly. The rooms are very comfortable. The bed was a little harder than my liking but I still slept well. Great location. Free dinners serve real food, not snack items. Really enjoyed my stay. Weekends occasionally brought louder guests. However it wasn't a hindrance. MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Staff is very friendly. The rooms are very comfortable. The bed was a little harder than my liking but I still slept well. Great location. Free dinners serve real food, not snack items. Really enjoyed my stay. Weekends occasionally brought louder guests. However it wasn't a hindrance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r362757451-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>362757451</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>A very nice stay</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay at Staybridge Suites in Dallas Las Colinas. I was warmly welcomed by the staff upon arrival and, given my Spire Elite Status, I was upgraded to a 2-bedroom suite with 2 bathrooms, although I was alone.Very young people at the hotel, nice and clean atmosphere.The only thing they should check is the furniture, The chairs in my room were stained and not properly clean and this was not expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded April 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2016</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay at Staybridge Suites in Dallas Las Colinas. I was warmly welcomed by the staff upon arrival and, given my Spire Elite Status, I was upgraded to a 2-bedroom suite with 2 bathrooms, although I was alone.Very young people at the hotel, nice and clean atmosphere.The only thing they should check is the furniture, The chairs in my room were stained and not properly clean and this was not expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r353961988-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>353961988</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Spacious, well decorated 2 bedroom suites. Convenient location, comfortable and safe atmosphere, excellent breakfast, awesome staff, and budget friendly! Make this a top choice! I highly recommend Staybridge!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Spacious, well decorated 2 bedroom suites. Convenient location, comfortable and safe atmosphere, excellent breakfast, awesome staff, and budget friendly! Make this a top choice! I highly recommend Staybridge!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r349285141-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>349285141</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service </t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while he was in town for training. The staff were extremely friendly and our room was clean. We have always been happy with Staybridge. The morning breakfast was fair, but definitely better than some. The front desk has hundreds of movies available for you to watch in your room which was really nice. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while he was in town for training. The staff were extremely friendly and our room was clean. We have always been happy with Staybridge. The morning breakfast was fair, but definitely better than some. The front desk has hundreds of movies available for you to watch in your room which was really nice. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r343553508-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>343553508</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Pretty good place</t>
+  </si>
+  <si>
+    <t>The property has a large car park, location is close to restaurants etc. but not easy to get anywhere without a car.Reception is friendly and efficient, especially the lovely Renee.  Breakfast is basic but OK to get something before you leave.Rooms have a small kitchen (fridge, microwave, dishwasher, coffee maker) and lounge area, beds are Ok, plenty of storage space, two TVs with good range of channels.Handy and reliable shuttle bus will take you within about 5 miles.Overall I would say it rates about the same as Aloft but better than La Quinta.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>The property has a large car park, location is close to restaurants etc. but not easy to get anywhere without a car.Reception is friendly and efficient, especially the lovely Renee.  Breakfast is basic but OK to get something before you leave.Rooms have a small kitchen (fridge, microwave, dishwasher, coffee maker) and lounge area, beds are Ok, plenty of storage space, two TVs with good range of channels.Handy and reliable shuttle bus will take you within about 5 miles.Overall I would say it rates about the same as Aloft but better than La Quinta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r311304797-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>311304797</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Perfect long stay place</t>
+  </si>
+  <si>
+    <t>I've been there for 118 days straight (April 26 - August 22). It had everything I needed: Big room with big bathroom, 2 TVs, small kitchen, big fridge... There are iron in the room and 4 washing machines and 4 dryers in the room next to gym. Everything you need for longer stay. There are rooms for disabled that are easily accessible, and there is a big parking lot around the hotel.Besides that, there is a small gym in there. It's not a gym suitable for powerlifters, but it's sufficient for anybody who likes to work out a little bit. There are also a pool and a tennis/basketball court. What I really like about this place is a "backyard". There is enough room for a lot of people to hang out, have a barbecue (yeah, they have 2 grills out there), and just relax surrounded by vegetables in a shade of a trees. But the biggest plus for this place are the people working there. They are really nice, and will do anything to make your stay better.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>I've been there for 118 days straight (April 26 - August 22). It had everything I needed: Big room with big bathroom, 2 TVs, small kitchen, big fridge... There are iron in the room and 4 washing machines and 4 dryers in the room next to gym. Everything you need for longer stay. There are rooms for disabled that are easily accessible, and there is a big parking lot around the hotel.Besides that, there is a small gym in there. It's not a gym suitable for powerlifters, but it's sufficient for anybody who likes to work out a little bit. There are also a pool and a tennis/basketball court. What I really like about this place is a "backyard". There is enough room for a lot of people to hang out, have a barbecue (yeah, they have 2 grills out there), and just relax surrounded by vegetables in a shade of a trees. But the biggest plus for this place are the people working there. They are really nice, and will do anything to make your stay better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r308382438-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>308382438</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Awesome!!!</t>
+  </si>
+  <si>
+    <t>Great place! Beautiful patio and so relaxing! The pool area was so nice and water looked clean! The area where the hotel is located is nice. No complaints here! I recommend to everyone! I will say that there was a floor dryer in the room but was not a bad thing because the carpet had been shampooed and smelled so clean when we entered. We left it in the hall and informed the front desk and they took care of it. What you see on the pictures of this hotel is really how it looks in person.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Great place! Beautiful patio and so relaxing! The pool area was so nice and water looked clean! The area where the hotel is located is nice. No complaints here! I recommend to everyone! I will say that there was a floor dryer in the room but was not a bad thing because the carpet had been shampooed and smelled so clean when we entered. We left it in the hall and informed the front desk and they took care of it. What you see on the pictures of this hotel is really how it looks in person.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r306493832-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>306493832</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Property!!</t>
+  </si>
+  <si>
+    <t>Most of the Holiday Inn properties are in good shape and the staff is normally good.  But....this property is great and everybody associated with it was Wonderful.  the manager and assistant managers were present for every meal and they actually seemed to care.  The breakfast was a little different every day and always good.  they had a dinner every night we were there and it was all pretty darned good.    We asked to use the grills one night and they went out of their way to clean the grills, place spare propane by the grills and place everything we needed beside the grills.  This was truly an excellent experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Most of the Holiday Inn properties are in good shape and the staff is normally good.  But....this property is great and everybody associated with it was Wonderful.  the manager and assistant managers were present for every meal and they actually seemed to care.  The breakfast was a little different every day and always good.  they had a dinner every night we were there and it was all pretty darned good.    We asked to use the grills one night and they went out of their way to clean the grills, place spare propane by the grills and place everything we needed beside the grills.  This was truly an excellent experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r287642825-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>287642825</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff, comfortable beds, standard Staybridge breakfast</t>
+  </si>
+  <si>
+    <t>Another night in another Staybridge and this one did not disappoint. The front desk staff was friendly and were ready with my reservation. This Staybridge is a bigger one than some. My room was located a ways away from the elevator, which is fine for me as it was very quiet. Bed was comfortable, plenty of towels in the bathroom (nice thick ones...better than HI Express). I had a wifi password and it worked great.The breakfast was hot and ready when I cam down in the morning. They had scrambled eggs, meat, yogurt, bread and muffins for toast, coffee and juice. I didn't see hardboiled eggs, but I had plenty of options. This is nestled in business district, so there are some food places nearby. Dickie's BBQ was just a short drive away. I also saw a greek place and a Boston Market nearby.Would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Another night in another Staybridge and this one did not disappoint. The front desk staff was friendly and were ready with my reservation. This Staybridge is a bigger one than some. My room was located a ways away from the elevator, which is fine for me as it was very quiet. Bed was comfortable, plenty of towels in the bathroom (nice thick ones...better than HI Express). I had a wifi password and it worked great.The breakfast was hot and ready when I cam down in the morning. They had scrambled eggs, meat, yogurt, bread and muffins for toast, coffee and juice. I didn't see hardboiled eggs, but I had plenty of options. This is nestled in business district, so there are some food places nearby. Dickie's BBQ was just a short drive away. I also saw a greek place and a Boston Market nearby.Would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r283952688-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>283952688</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Good hotel, but they came in our room without permission, the bathroom was tight, and the breakfast was not on time.</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for one night on our move across the country. The location is pretty good, although you may have to pay a small toll (if they send you the toll fee in the mail - it is a cashless toll road) because it is right off of a turnpike (you might be able to find a way around the turnpike). Check in was okay, although the front desk clerk was not entirely sure about the pet fee because he actually worked at the nearby Candlewood and was covering a shift for Staybridge. He even had his Candlewood name tag still on. No big deal though because I was contacted later about the pet fee. 
+We had a queen studio suite. It was a pretty good size, but the design of the room led to a very cramped bathroom. One of those deals where you can barely shut the door to the bathroom without already sitting on the toilet. 
+We went out for dinner and came back with a voice mail waiting for us. It said that they checked out the coffee maker that we complained about and that it should be okay now. The problem was that we never complained about a coffee maker. This meant someone had come into our room while we were gone even though we had a do not disturb tag on our door. This also meant that someone came into...My family and I stayed here for one night on our move across the country. The location is pretty good, although you may have to pay a small toll (if they send you the toll fee in the mail - it is a cashless toll road) because it is right off of a turnpike (you might be able to find a way around the turnpike). Check in was okay, although the front desk clerk was not entirely sure about the pet fee because he actually worked at the nearby Candlewood and was covering a shift for Staybridge. He even had his Candlewood name tag still on. No big deal though because I was contacted later about the pet fee. We had a queen studio suite. It was a pretty good size, but the design of the room led to a very cramped bathroom. One of those deals where you can barely shut the door to the bathroom without already sitting on the toilet. We went out for dinner and came back with a voice mail waiting for us. It said that they checked out the coffee maker that we complained about and that it should be okay now. The problem was that we never complained about a coffee maker. This meant someone had come into our room while we were gone even though we had a do not disturb tag on our door. This also meant that someone came into our room with our cat in the room and our cat could have somehow found its way out of our room if they had left the door open. We wanted to get an early start on our trip the next morning and went down for the start of breakfast at 7:00 AM on Saturday morning. Problem was is that they were not ready for breakfast. Two other individuals were also waiting to eat breakfast and one of them actually asked the lady running the breakfast for utensils so that she could get her breakfast. The breakfast started about 10 minutes later, which really wasn't a big deal, but you need to start on time if you indicate breakfast starts at a certain time. This is especially true for guests who have appointments or want to get an early start (like us).Other than the above, it was a good hotel. However, they are things that can be improved upon at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for one night on our move across the country. The location is pretty good, although you may have to pay a small toll (if they send you the toll fee in the mail - it is a cashless toll road) because it is right off of a turnpike (you might be able to find a way around the turnpike). Check in was okay, although the front desk clerk was not entirely sure about the pet fee because he actually worked at the nearby Candlewood and was covering a shift for Staybridge. He even had his Candlewood name tag still on. No big deal though because I was contacted later about the pet fee. 
+We had a queen studio suite. It was a pretty good size, but the design of the room led to a very cramped bathroom. One of those deals where you can barely shut the door to the bathroom without already sitting on the toilet. 
+We went out for dinner and came back with a voice mail waiting for us. It said that they checked out the coffee maker that we complained about and that it should be okay now. The problem was that we never complained about a coffee maker. This meant someone had come into our room while we were gone even though we had a do not disturb tag on our door. This also meant that someone came into...My family and I stayed here for one night on our move across the country. The location is pretty good, although you may have to pay a small toll (if they send you the toll fee in the mail - it is a cashless toll road) because it is right off of a turnpike (you might be able to find a way around the turnpike). Check in was okay, although the front desk clerk was not entirely sure about the pet fee because he actually worked at the nearby Candlewood and was covering a shift for Staybridge. He even had his Candlewood name tag still on. No big deal though because I was contacted later about the pet fee. We had a queen studio suite. It was a pretty good size, but the design of the room led to a very cramped bathroom. One of those deals where you can barely shut the door to the bathroom without already sitting on the toilet. We went out for dinner and came back with a voice mail waiting for us. It said that they checked out the coffee maker that we complained about and that it should be okay now. The problem was that we never complained about a coffee maker. This meant someone had come into our room while we were gone even though we had a do not disturb tag on our door. This also meant that someone came into our room with our cat in the room and our cat could have somehow found its way out of our room if they had left the door open. We wanted to get an early start on our trip the next morning and went down for the start of breakfast at 7:00 AM on Saturday morning. Problem was is that they were not ready for breakfast. Two other individuals were also waiting to eat breakfast and one of them actually asked the lady running the breakfast for utensils so that she could get her breakfast. The breakfast started about 10 minutes later, which really wasn't a big deal, but you need to start on time if you indicate breakfast starts at a certain time. This is especially true for guests who have appointments or want to get an early start (like us).Other than the above, it was a good hotel. However, they are things that can be improved upon at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r278479902-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>278479902</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Very clean, friendly staff, great location</t>
+  </si>
+  <si>
+    <t>My family and I stayed here last month and it was awesome!  The room was spacious, reasonably priced, and clean.  The staff was very friendly and provided great service.The location was ideal because we were mintues from great scenery and restaurants.  MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed here last month and it was awesome!  The room was spacious, reasonably priced, and clean.  The staff was very friendly and provided great service.The location was ideal because we were mintues from great scenery and restaurants.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r274432608-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>274432608</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable reasonable </t>
+  </si>
+  <si>
+    <t>We traveled to Dallas area for a family weekend. Unfortunately our plans were completely rained out. But we were very happy with our stay at the hotel. We stayed in a two bedroom suite. It was very comfortable. Had lots of room for the kids, seperate bathrooms, kitchen and living area. Our rate was $130 ish a night and that included our pet fee. The hotel allows dogs for minimal fee. They ask you crate them while gone so housekeeping can clean daily. Which is understandable to keep the pet hair down. Our extremely well behaved 50lb dog isn't welcome at most hotels because of her size. It's nice to find a hotel that isn't prejudice against my dogs size. I guarantee she's better to have in a hotel than many small dogs. The breakfast was good. Each morning there was a slightly different choice. Eggs, waffles, sausage, cereals, fruit, yogurt, bagels, so on. Staff was very friendly. The hotel was clean. There was a pool and basketball area but we did not use them due to weather. My only complaint was the walls were thin. We could hear our neighbors and we're kept up until 1130pm from the very loud people playing basketball and shouting outside. A little bit of a drive to many DFW attractions but I think well worth the $ and drive for the comfort space and savings.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>We traveled to Dallas area for a family weekend. Unfortunately our plans were completely rained out. But we were very happy with our stay at the hotel. We stayed in a two bedroom suite. It was very comfortable. Had lots of room for the kids, seperate bathrooms, kitchen and living area. Our rate was $130 ish a night and that included our pet fee. The hotel allows dogs for minimal fee. They ask you crate them while gone so housekeeping can clean daily. Which is understandable to keep the pet hair down. Our extremely well behaved 50lb dog isn't welcome at most hotels because of her size. It's nice to find a hotel that isn't prejudice against my dogs size. I guarantee she's better to have in a hotel than many small dogs. The breakfast was good. Each morning there was a slightly different choice. Eggs, waffles, sausage, cereals, fruit, yogurt, bagels, so on. Staff was very friendly. The hotel was clean. There was a pool and basketball area but we did not use them due to weather. My only complaint was the walls were thin. We could hear our neighbors and we're kept up until 1130pm from the very loud people playing basketball and shouting outside. A little bit of a drive to many DFW attractions but I think well worth the $ and drive for the comfort space and savings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r271877262-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>271877262</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Great value for a comfortable and well furnished room</t>
+  </si>
+  <si>
+    <t>Nice greeting by warm and friendly staff. The room was very nice - made me feel more like an apartment rather than a hotel. Breakfast had lots of options, was clean and bright place to start the day. Overall I had a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded May 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2015</t>
+  </si>
+  <si>
+    <t>Nice greeting by warm and friendly staff. The room was very nice - made me feel more like an apartment rather than a hotel. Breakfast had lots of options, was clean and bright place to start the day. Overall I had a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r268195662-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>268195662</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Surprisingly good</t>
+  </si>
+  <si>
+    <t>Very well appointed room not great wifi but acceptable . Then continental breakfast was good with many choices ,then they have snacks and beer free from Tuesday -Thursday .Laundry is free just pay for soap ,But the pool area was the best complete with a basketball court .Would stay hear again great location;MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Very well appointed room not great wifi but acceptable . Then continental breakfast was good with many choices ,then they have snacks and beer free from Tuesday -Thursday .Laundry is free just pay for soap ,But the pool area was the best complete with a basketball court .Would stay hear again great location;More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r261978128-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>261978128</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Rented a 2 room suite, was nice and clean. Had no problems. Was quiet. Very nice options for breakfast. Pool looked wonderful but too cold yet to use. Easy to get to dallas and the airport. They do not have housekeeping over the weekends but that was not a problem. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Rented a 2 room suite, was nice and clean. Had no problems. Was quiet. Very nice options for breakfast. Pool looked wonderful but too cold yet to use. Easy to get to dallas and the airport. They do not have housekeeping over the weekends but that was not a problem. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r261080007-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>261080007</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place </t>
+  </si>
+  <si>
+    <t>The price isn't bad.  It's like having your own little apartment on the road.  Breakfast isn't bad and on certain nights they have a beer tap " free".  Beds are good and rooms are pretty private.  Has Heated pool.  Really nice and super clean and the staff is great. MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>The price isn't bad.  It's like having your own little apartment on the road.  Breakfast isn't bad and on certain nights they have a beer tap " free".  Beds are good and rooms are pretty private.  Has Heated pool.  Really nice and super clean and the staff is great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r258292636-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>258292636</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Nice no Housekeeping</t>
+  </si>
+  <si>
+    <t>I like the eminities of the Staybridge brand but this location only gave us housekeeping service one day and it was so late we only asked for towels. If I come back to Dallas I'll not use this one byt try another and see uf they have fallen down in service from what I've grown a custom to.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded March 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2015</t>
+  </si>
+  <si>
+    <t>I like the eminities of the Staybridge brand but this location only gave us housekeeping service one day and it was so late we only asked for towels. If I come back to Dallas I'll not use this one byt try another and see uf they have fallen down in service from what I've grown a custom to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r255513379-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>255513379</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Looking Forward for my next stay</t>
+  </si>
+  <si>
+    <t>The room is beautiful and comfortable. Front desk was very friendly. The breakfast was delicious. After my flight was cancelled due to snowstorm to return to Boston  it was very stressful dialing with the flight reschedule, but after i got to the room and lay down on the one of the most comfortable bed I've ever lay down i slept like a baby.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2015</t>
+  </si>
+  <si>
+    <t>The room is beautiful and comfortable. Front desk was very friendly. The breakfast was delicious. After my flight was cancelled due to snowstorm to return to Boston  it was very stressful dialing with the flight reschedule, but after i got to the room and lay down on the one of the most comfortable bed I've ever lay down i slept like a baby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r251483064-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>251483064</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean rooms, great staff</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean, spacious rooms and newly renovated.  Normal accomodations include full size refrigerator, HD TV and a small sitting area.  Hot and Cold items available for breakfast and a pm social hour (beer, wine, themed food) are well, and often, stocked.  The calendars for the themed food is usually posted on the refirgerator.  Unfortunetly no shuttle to DFW airport, however shuttle can transport you anywhere within a 5 mile radius of the hotel.  CVS is two blocks away as are a variety of fast food places (Wendy's, Jack in the Box and Chick-Fil-A).  A few sit down restaurants are accross the street (Thai, Italaian food).  Pleasant walk, unless you visit in the summer.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean, spacious rooms and newly renovated.  Normal accomodations include full size refrigerator, HD TV and a small sitting area.  Hot and Cold items available for breakfast and a pm social hour (beer, wine, themed food) are well, and often, stocked.  The calendars for the themed food is usually posted on the refirgerator.  Unfortunetly no shuttle to DFW airport, however shuttle can transport you anywhere within a 5 mile radius of the hotel.  CVS is two blocks away as are a variety of fast food places (Wendy's, Jack in the Box and Chick-Fil-A).  A few sit down restaurants are accross the street (Thai, Italaian food).  Pleasant walk, unless you visit in the summer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r250038553-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>250038553</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Good, solid hotel option</t>
+  </si>
+  <si>
+    <t>So I usually stay at a different hotel in the Iriving/Las Colinas area, but my company's travel team booked this one for this trip so I gave it a try.  I have actually stayed at the Staybridge DFW which is actually closer to where I would spend my week, it's a nicer/newer hotel but the per day price is beyond what our company allows.  Anyway, first impressions were good.  The hotel is off MacArthur which is a busy street in Irving with literally dozens of shops and restaurants up and down it so the location was great.  It was easy to hop in the car and grab some food.  The hotel itself, I believe, was fairly recently renovated and you can certainly tell that.  The main common areas are pretty nicely well appointed, the staff is very friendly and helpful.  My room, however, was just ok. Nothing inherently or overwhelming wrong, it was clean, but was it was clear to me that the renovations were tactical, not all-encompassing.  The bathroom door would not close, the microwave in the kitchenette felt like it would fall down and some of the furniture had seen better days.  Having a full sized refrigerator and dishwasher were big plusses for my long stay.  The free breakfasts in the morning were pretty good, I was pleasantly surprised, they had your usual array of cereals, pastries, breads, etc, but also scrambled eggs and bacon which was nice....So I usually stay at a different hotel in the Iriving/Las Colinas area, but my company's travel team booked this one for this trip so I gave it a try.  I have actually stayed at the Staybridge DFW which is actually closer to where I would spend my week, it's a nicer/newer hotel but the per day price is beyond what our company allows.  Anyway, first impressions were good.  The hotel is off MacArthur which is a busy street in Irving with literally dozens of shops and restaurants up and down it so the location was great.  It was easy to hop in the car and grab some food.  The hotel itself, I believe, was fairly recently renovated and you can certainly tell that.  The main common areas are pretty nicely well appointed, the staff is very friendly and helpful.  My room, however, was just ok. Nothing inherently or overwhelming wrong, it was clean, but was it was clear to me that the renovations were tactical, not all-encompassing.  The bathroom door would not close, the microwave in the kitchenette felt like it would fall down and some of the furniture had seen better days.  Having a full sized refrigerator and dishwasher were big plusses for my long stay.  The free breakfasts in the morning were pretty good, I was pleasantly surprised, they had your usual array of cereals, pastries, breads, etc, but also scrambled eggs and bacon which was nice.  Coffee was good too.  My biggest annoyance, which is admittedly minor was the TV.  It wasn't the biggest -- maybe 28", took forever to "warm up" when you turned it on and the channel card in the room was completely wrong. I arrived on Sunday and could not find the NFL game because the NBC channel was either missing or mislabeled on the card.  I hate hunting and pecking for channels.  Rooms are not quiet -- no hotel really is -- but could easily hear every word of my neighbors conversations, even their loud cursing.  Overall, not a bad stay. I'm not sure I'd actively seek out this hotel, but if my company books me here again, I'm not going to mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>So I usually stay at a different hotel in the Iriving/Las Colinas area, but my company's travel team booked this one for this trip so I gave it a try.  I have actually stayed at the Staybridge DFW which is actually closer to where I would spend my week, it's a nicer/newer hotel but the per day price is beyond what our company allows.  Anyway, first impressions were good.  The hotel is off MacArthur which is a busy street in Irving with literally dozens of shops and restaurants up and down it so the location was great.  It was easy to hop in the car and grab some food.  The hotel itself, I believe, was fairly recently renovated and you can certainly tell that.  The main common areas are pretty nicely well appointed, the staff is very friendly and helpful.  My room, however, was just ok. Nothing inherently or overwhelming wrong, it was clean, but was it was clear to me that the renovations were tactical, not all-encompassing.  The bathroom door would not close, the microwave in the kitchenette felt like it would fall down and some of the furniture had seen better days.  Having a full sized refrigerator and dishwasher were big plusses for my long stay.  The free breakfasts in the morning were pretty good, I was pleasantly surprised, they had your usual array of cereals, pastries, breads, etc, but also scrambled eggs and bacon which was nice....So I usually stay at a different hotel in the Iriving/Las Colinas area, but my company's travel team booked this one for this trip so I gave it a try.  I have actually stayed at the Staybridge DFW which is actually closer to where I would spend my week, it's a nicer/newer hotel but the per day price is beyond what our company allows.  Anyway, first impressions were good.  The hotel is off MacArthur which is a busy street in Irving with literally dozens of shops and restaurants up and down it so the location was great.  It was easy to hop in the car and grab some food.  The hotel itself, I believe, was fairly recently renovated and you can certainly tell that.  The main common areas are pretty nicely well appointed, the staff is very friendly and helpful.  My room, however, was just ok. Nothing inherently or overwhelming wrong, it was clean, but was it was clear to me that the renovations were tactical, not all-encompassing.  The bathroom door would not close, the microwave in the kitchenette felt like it would fall down and some of the furniture had seen better days.  Having a full sized refrigerator and dishwasher were big plusses for my long stay.  The free breakfasts in the morning were pretty good, I was pleasantly surprised, they had your usual array of cereals, pastries, breads, etc, but also scrambled eggs and bacon which was nice.  Coffee was good too.  My biggest annoyance, which is admittedly minor was the TV.  It wasn't the biggest -- maybe 28", took forever to "warm up" when you turned it on and the channel card in the room was completely wrong. I arrived on Sunday and could not find the NFL game because the NBC channel was either missing or mislabeled on the card.  I hate hunting and pecking for channels.  Rooms are not quiet -- no hotel really is -- but could easily hear every word of my neighbors conversations, even their loud cursing.  Overall, not a bad stay. I'm not sure I'd actively seek out this hotel, but if my company books me here again, I'm not going to mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r240911650-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>240911650</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Wienermobile</t>
+  </si>
+  <si>
+    <t>This is such an amazing hotel with great staff! They understand customer service and organization. They are there with assistance and breakfast is great. Social hour is something not to be missed! The management treat you as you are a friend and not just a guest. Every time the Wienermobile comes to Dallas it stays at this hotel and it is a great thing to see. They travel the country and enjoy extended stays! So if you are even in the Dallas area you may possibly see it and the Hotdogger will definitely show you the inside! Also, free popcorn!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded November 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2014</t>
+  </si>
+  <si>
+    <t>This is such an amazing hotel with great staff! They understand customer service and organization. They are there with assistance and breakfast is great. Social hour is something not to be missed! The management treat you as you are a friend and not just a guest. Every time the Wienermobile comes to Dallas it stays at this hotel and it is a great thing to see. They travel the country and enjoy extended stays! So if you are even in the Dallas area you may possibly see it and the Hotdogger will definitely show you the inside! Also, free popcorn!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r237342742-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>237342742</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>Warm, welcoming and wonderful!  The staff at the front desk, the cleaning staff and those that prepare the breakfast and "social" dinner are top notch!!!  Stayed for 2 weeks and would highly recommend anyone staying in the area to stay here.  The only negative is there really isn't anyplace worth walking to!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded November 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2014</t>
+  </si>
+  <si>
+    <t>Warm, welcoming and wonderful!  The staff at the front desk, the cleaning staff and those that prepare the breakfast and "social" dinner are top notch!!!  Stayed for 2 weeks and would highly recommend anyone staying in the area to stay here.  The only negative is there really isn't anyplace worth walking to!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r236926452-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>236926452</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Great stay for family!</t>
+  </si>
+  <si>
+    <t>I have twin infant boys and we were meeting my husband for the weekend in Irving and stayed here. We booked a king queen 2 room suite. Very nice for 3 adults and 2 infants. Great space and nice bathrooms. Loved how each room had private bath and like how the living room/ kitchen separated the two rooms. Comfy beds and great breakfast! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded November 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2014</t>
+  </si>
+  <si>
+    <t>I have twin infant boys and we were meeting my husband for the weekend in Irving and stayed here. We booked a king queen 2 room suite. Very nice for 3 adults and 2 infants. Great space and nice bathrooms. Loved how each room had private bath and like how the living room/ kitchen separated the two rooms. Comfy beds and great breakfast! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r232222276-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>232222276</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>A real joy</t>
+  </si>
+  <si>
+    <t>First of all, the service and all the staff were undeniably amazing. Great hosts!The hotel has a sweet rustic look and the rooms are really cozy. The pool, the garden and the outdoor grill are great places to relax or have fun.Strongly recommend this.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded October 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2014</t>
+  </si>
+  <si>
+    <t>First of all, the service and all the staff were undeniably amazing. Great hosts!The hotel has a sweet rustic look and the rooms are really cozy. The pool, the garden and the outdoor grill are great places to relax or have fun.Strongly recommend this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r231769488-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>231769488</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>We were there on a working trip for a long stay - roughly 2 months. The staff was amazing and everything was accordingly. Breakfast was served everyday and had everything you needed. The general reception of the staff was extremely warm and always tried to attend their guests needs. The outside area was also very interesting and refreshing. Try it yourself.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2014</t>
+  </si>
+  <si>
+    <t>We were there on a working trip for a long stay - roughly 2 months. The staff was amazing and everything was accordingly. Breakfast was served everyday and had everything you needed. The general reception of the staff was extremely warm and always tried to attend their guests needs. The outside area was also very interesting and refreshing. Try it yourself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r231768659-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>231768659</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Very attentive staff, nice pool, nice bed, nice basketball field.Went for business trip and could relax after work in the pool.Staff does a good job overall, and the front desk guys are really nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Very attentive staff, nice pool, nice bed, nice basketball field.Went for business trip and could relax after work in the pool.Staff does a good job overall, and the front desk guys are really nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r230014583-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>230014583</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>I was here on business for two weeks. I had a few hiccups but the staff acted accordingly and always went above and beyond. Rooms are very clean and spacious. The breakfast offered is great for being complimentary. They offer dinner Tuesday-Friday with complimentary wine &amp; beer. Who could want more? Very pleased with my experience and will be returning in a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded September 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2014</t>
+  </si>
+  <si>
+    <t>I was here on business for two weeks. I had a few hiccups but the staff acted accordingly and always went above and beyond. Rooms are very clean and spacious. The breakfast offered is great for being complimentary. They offer dinner Tuesday-Friday with complimentary wine &amp; beer. Who could want more? Very pleased with my experience and will be returning in a week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r229301974-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>229301974</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Getaway/Shopping while spouse traveled</t>
+  </si>
+  <si>
+    <t>Chose this hotel based on its reviews and the closeness to airport that allowed me the ability to pick spouse up when he returned from his business trip.  Staff was exceptionally friendly and hotel was very clean.  I mistakenly chose the wrong room type on our reservation and the staff was quick to find me a non-smoking room which also included a wonderful upgrade.  Enjoyed my stay and the hotel is well within anything you might want to eat or shop at.  Very clean and beds were awesome.  A/C worked great too which is a very important amenity for us. My husband travels quite a bit and this will be a go to hotel when I want to stay in Dallas and shop.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded September 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2014</t>
+  </si>
+  <si>
+    <t>Chose this hotel based on its reviews and the closeness to airport that allowed me the ability to pick spouse up when he returned from his business trip.  Staff was exceptionally friendly and hotel was very clean.  I mistakenly chose the wrong room type on our reservation and the staff was quick to find me a non-smoking room which also included a wonderful upgrade.  Enjoyed my stay and the hotel is well within anything you might want to eat or shop at.  Very clean and beds were awesome.  A/C worked great too which is a very important amenity for us. My husband travels quite a bit and this will be a go to hotel when I want to stay in Dallas and shop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r226418245-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>226418245</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Birthday for Grandson</t>
+  </si>
+  <si>
+    <t>Great suite for five in multi-generational family to spend grandson's 16th birthday. Enjoyed the mid-week evening meals and the morning breakfast plus workout room and pool and was convenient for our other ventures. Clean and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-DALLC, Guest Services Representative at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Great suite for five in multi-generational family to spend grandson's 16th birthday. Enjoyed the mid-week evening meals and the morning breakfast plus workout room and pool and was convenient for our other ventures. Clean and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r208904143-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>208904143</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Good location, pet friendly but not up to the IHG standard</t>
+  </si>
+  <si>
+    <t>This was our first time to stay at a Staybridge property though we have stayed at other IHG properties (Intercontinental, Holiday Inn, Crown Plaza, etc).  We selected this location because my wife was attending a conference nearby and also because it was a pet friendly hotel.  The location was ideal for us.  It was a short driving distance from the Irving Convention Center where my wife was attending a conference.  There were also a number of restaurants (Indian-Saregama, Greek, Italian and many fast food restaurants-Subway, McDonalds) within walking distance and many more just a short drive away.  There was also a park nearby, which our dog enjoyed.  Another reason we chose this property was because an ad we saw claimed that the property was recently "renovated."  This proved to be only partially true.  The kitchen in each suite was redone and I must admit they had a done a great job on remodeling the kitchen area.  However, not much else appears to have been renovated.  The couch was "original": sagging, stained, fraying cushions at the seams...had seen better days and was uncomfortable to sit on.  Most of the rest of the furniture appeared old as well.  The bed itself was good though I thought it was strange to see such small pillows.  Usually hotels tend to have king size pillows, this one had such small ones that  were barely enough to rest your head on.  The AC was also noisy....This was our first time to stay at a Staybridge property though we have stayed at other IHG properties (Intercontinental, Holiday Inn, Crown Plaza, etc).  We selected this location because my wife was attending a conference nearby and also because it was a pet friendly hotel.  The location was ideal for us.  It was a short driving distance from the Irving Convention Center where my wife was attending a conference.  There were also a number of restaurants (Indian-Saregama, Greek, Italian and many fast food restaurants-Subway, McDonalds) within walking distance and many more just a short drive away.  There was also a park nearby, which our dog enjoyed.  Another reason we chose this property was because an ad we saw claimed that the property was recently "renovated."  This proved to be only partially true.  The kitchen in each suite was redone and I must admit they had a done a great job on remodeling the kitchen area.  However, not much else appears to have been renovated.  The couch was "original": sagging, stained, fraying cushions at the seams...had seen better days and was uncomfortable to sit on.  Most of the rest of the furniture appeared old as well.  The bed itself was good though I thought it was strange to see such small pillows.  Usually hotels tend to have king size pillows, this one had such small ones that  were barely enough to rest your head on.  The AC was also noisy.  I am guessing the AC units were not replaced during the "renovation." The free breakfast was pretty good though I found the kitchen staff to be indifferent.  The front desk staff though were very good and pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Jeff P, Director of Sales at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2014</t>
+  </si>
+  <si>
+    <t>This was our first time to stay at a Staybridge property though we have stayed at other IHG properties (Intercontinental, Holiday Inn, Crown Plaza, etc).  We selected this location because my wife was attending a conference nearby and also because it was a pet friendly hotel.  The location was ideal for us.  It was a short driving distance from the Irving Convention Center where my wife was attending a conference.  There were also a number of restaurants (Indian-Saregama, Greek, Italian and many fast food restaurants-Subway, McDonalds) within walking distance and many more just a short drive away.  There was also a park nearby, which our dog enjoyed.  Another reason we chose this property was because an ad we saw claimed that the property was recently "renovated."  This proved to be only partially true.  The kitchen in each suite was redone and I must admit they had a done a great job on remodeling the kitchen area.  However, not much else appears to have been renovated.  The couch was "original": sagging, stained, fraying cushions at the seams...had seen better days and was uncomfortable to sit on.  Most of the rest of the furniture appeared old as well.  The bed itself was good though I thought it was strange to see such small pillows.  Usually hotels tend to have king size pillows, this one had such small ones that  were barely enough to rest your head on.  The AC was also noisy....This was our first time to stay at a Staybridge property though we have stayed at other IHG properties (Intercontinental, Holiday Inn, Crown Plaza, etc).  We selected this location because my wife was attending a conference nearby and also because it was a pet friendly hotel.  The location was ideal for us.  It was a short driving distance from the Irving Convention Center where my wife was attending a conference.  There were also a number of restaurants (Indian-Saregama, Greek, Italian and many fast food restaurants-Subway, McDonalds) within walking distance and many more just a short drive away.  There was also a park nearby, which our dog enjoyed.  Another reason we chose this property was because an ad we saw claimed that the property was recently "renovated."  This proved to be only partially true.  The kitchen in each suite was redone and I must admit they had a done a great job on remodeling the kitchen area.  However, not much else appears to have been renovated.  The couch was "original": sagging, stained, fraying cushions at the seams...had seen better days and was uncomfortable to sit on.  Most of the rest of the furniture appeared old as well.  The bed itself was good though I thought it was strange to see such small pillows.  Usually hotels tend to have king size pillows, this one had such small ones that  were barely enough to rest your head on.  The AC was also noisy.  I am guessing the AC units were not replaced during the "renovation." The free breakfast was pretty good though I found the kitchen staff to be indifferent.  The front desk staff though were very good and pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r200212004-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>200212004</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Fantasic Stay - Definite Place To Stay</t>
+  </si>
+  <si>
+    <t>What a great hotel!!!  My first time EVER staying at a StayBridge Suites.  It was beyond my expectations.  Mindy was awesome.  The GM and front desk staff did anything you needed.  Rooms are spacious and very comfortable.  I'm glad I will be staying there again soon. So many resturant choices.  Also shuttle to the airport if needed!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jeff P, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2014</t>
+  </si>
+  <si>
+    <t>What a great hotel!!!  My first time EVER staying at a StayBridge Suites.  It was beyond my expectations.  Mindy was awesome.  The GM and front desk staff did anything you needed.  Rooms are spacious and very comfortable.  I'm glad I will be staying there again soon. So many resturant choices.  Also shuttle to the airport if needed!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r196694558-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>196694558</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights when I had to attend training with my company in Irving, TX. My room was clean and contained a small kitchen area with a fridge and a sink. My room also contained a desk area and a TV on a dresser. The hotel has free wi fi which is great. In the mornings, they put out free breakfast that included hot food, bagels, muffins, fruit, and cereal; it was a nice spread. They have a happy hour three days a week but not on Mondays. There really isn't much around the hotel within walking distance so it is a little boring at night. There is no hotel bar which is surprising.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Jeff P, Front Office Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights when I had to attend training with my company in Irving, TX. My room was clean and contained a small kitchen area with a fridge and a sink. My room also contained a desk area and a TV on a dresser. The hotel has free wi fi which is great. In the mornings, they put out free breakfast that included hot food, bagels, muffins, fruit, and cereal; it was a nice spread. They have a happy hour three days a week but not on Mondays. There really isn't much around the hotel within walking distance so it is a little boring at night. There is no hotel bar which is surprising.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r178484949-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>178484949</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Well maintained and super quiet</t>
+  </si>
+  <si>
+    <t>Stayed two nights for business, and everything was great.  All of the fixtures were in good shape, and the room was very quiet and dark.  It's just a few minutes from both airports.  There is a ton of stuff nearby, and if you can stand the Dallas traffic, it's relatively easy to get to.  All in all, I would definitely return.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r175980760-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>175980760</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>A nice property in a good location. Horrid internet though...</t>
+  </si>
+  <si>
+    <t>This is a very nice property, well-kept, for the most part very well staffed.  There is plenty of minor shopping in the near area (Target, ToysRUs, drug stores, and various smaller stores...) bigger malls with major department stores being further away from the hotel. The shuttle service offered by the hotel is great.
+Rooms are nice and the property is well kept, although a major negative is the smoke billowing into your room (ours was a non-smoking room that smelled like we were in the middle of an ashtray).  This is designated as a non-smoking hotel (stated on the wall at check-in, and by elevators).  However, they DO have smoking rooms,  how many of them fluctuates according to guests requesting it-it's up to the management if they will change a non-smoking into a smoking room.  But smoke has a way of saturating furniture,  carpet, and drapes...A lot of smokers at this property...  Could hear congregations of noisy neighbors frequently as they would meet in the halls.
+The one elevator, used by staff and guests, is antiquated and often jerks to a stop, is out of serviced, or being serviced.  
+Internet was very slow, and incredibly spotty. (I actually would have to walk around the room holding my laptop just trying to GET a signal. As soon as I could get on, it would drop. Several days I had no service at all.)  Internet service in the business center is also...This is a very nice property, well-kept, for the most part very well staffed.  There is plenty of minor shopping in the near area (Target, ToysRUs, drug stores, and various smaller stores...) bigger malls with major department stores being further away from the hotel. The shuttle service offered by the hotel is great.Rooms are nice and the property is well kept, although a major negative is the smoke billowing into your room (ours was a non-smoking room that smelled like we were in the middle of an ashtray).  This is designated as a non-smoking hotel (stated on the wall at check-in, and by elevators).  However, they DO have smoking rooms,  how many of them fluctuates according to guests requesting it-it's up to the management if they will change a non-smoking into a smoking room.  But smoke has a way of saturating furniture,  carpet, and drapes...A lot of smokers at this property...  Could hear congregations of noisy neighbors frequently as they would meet in the halls.The one elevator, used by staff and guests, is antiquated and often jerks to a stop, is out of serviced, or being serviced.  Internet was very slow, and incredibly spotty. (I actually would have to walk around the room holding my laptop just trying to GET a signal. As soon as I could get on, it would drop. Several days I had no service at all.)  Internet service in the business center is also very slow, and several times unavailable there too.They do offer a variety of board games like Battleship, Clue, Monopoly, Scrabble ...for you to use.  That's nice.Meals offered were good, but better to eat in your room, or outside if you want it a little more quiet.  The outside offers a nice  shaded back area, sport court, pool, and grilling areas with nice outdoor furniture. Tree-covered and quiet.  You could definitely have peace and quiet back there, or a nice time by the pool. They are each separated by trees, shrubs and fencing so not to infringe on the other.  Some hotels aren't very child-friendly. Children are easily welcomed here. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Jeff P, Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>This is a very nice property, well-kept, for the most part very well staffed.  There is plenty of minor shopping in the near area (Target, ToysRUs, drug stores, and various smaller stores...) bigger malls with major department stores being further away from the hotel. The shuttle service offered by the hotel is great.
+Rooms are nice and the property is well kept, although a major negative is the smoke billowing into your room (ours was a non-smoking room that smelled like we were in the middle of an ashtray).  This is designated as a non-smoking hotel (stated on the wall at check-in, and by elevators).  However, they DO have smoking rooms,  how many of them fluctuates according to guests requesting it-it's up to the management if they will change a non-smoking into a smoking room.  But smoke has a way of saturating furniture,  carpet, and drapes...A lot of smokers at this property...  Could hear congregations of noisy neighbors frequently as they would meet in the halls.
+The one elevator, used by staff and guests, is antiquated and often jerks to a stop, is out of serviced, or being serviced.  
+Internet was very slow, and incredibly spotty. (I actually would have to walk around the room holding my laptop just trying to GET a signal. As soon as I could get on, it would drop. Several days I had no service at all.)  Internet service in the business center is also...This is a very nice property, well-kept, for the most part very well staffed.  There is plenty of minor shopping in the near area (Target, ToysRUs, drug stores, and various smaller stores...) bigger malls with major department stores being further away from the hotel. The shuttle service offered by the hotel is great.Rooms are nice and the property is well kept, although a major negative is the smoke billowing into your room (ours was a non-smoking room that smelled like we were in the middle of an ashtray).  This is designated as a non-smoking hotel (stated on the wall at check-in, and by elevators).  However, they DO have smoking rooms,  how many of them fluctuates according to guests requesting it-it's up to the management if they will change a non-smoking into a smoking room.  But smoke has a way of saturating furniture,  carpet, and drapes...A lot of smokers at this property...  Could hear congregations of noisy neighbors frequently as they would meet in the halls.The one elevator, used by staff and guests, is antiquated and often jerks to a stop, is out of serviced, or being serviced.  Internet was very slow, and incredibly spotty. (I actually would have to walk around the room holding my laptop just trying to GET a signal. As soon as I could get on, it would drop. Several days I had no service at all.)  Internet service in the business center is also very slow, and several times unavailable there too.They do offer a variety of board games like Battleship, Clue, Monopoly, Scrabble ...for you to use.  That's nice.Meals offered were good, but better to eat in your room, or outside if you want it a little more quiet.  The outside offers a nice  shaded back area, sport court, pool, and grilling areas with nice outdoor furniture. Tree-covered and quiet.  You could definitely have peace and quiet back there, or a nice time by the pool. They are each separated by trees, shrubs and fencing so not to infringe on the other.  Some hotels aren't very child-friendly. Children are easily welcomed here. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r175105190-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>175105190</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Peaceful quite stay - relaxing setting</t>
+  </si>
+  <si>
+    <t>After a fun game at The Rangers Ball Park, we located this motel on Tripadvisor.  The price was very reasonable, breakfast good, clean large rooms, pool outside, the service was excellent... What was different?... The motel is u-shaped and there is a pool, basket ball court, and sitting area.  These areas are secluded from outside traffic offering privacy which is nice.  The outsude sitting area is superb. There are individual sitting areas with just enough shrubbery to offer some privacy.  There are BBQ grills, and a small fire pit.   The designers have performed well at this location. We will definitely be back.  MoreShow less</t>
+  </si>
+  <si>
+    <t>After a fun game at The Rangers Ball Park, we located this motel on Tripadvisor.  The price was very reasonable, breakfast good, clean large rooms, pool outside, the service was excellent... What was different?... The motel is u-shaped and there is a pool, basket ball court, and sitting area.  These areas are secluded from outside traffic offering privacy which is nice.  The outsude sitting area is superb. There are individual sitting areas with just enough shrubbery to offer some privacy.  There are BBQ grills, and a small fire pit.   The designers have performed well at this location. We will definitely be back.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r166850632-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>166850632</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel - Phenomenal deal with pointbreaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. Monique at the front desk was helpful in changing reservation. Great breakfast. Happy hour was good too.  Truly an enjoyable experience. Thanks again for good clean hotel decent location with great service. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r155902486-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>155902486</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay at!</t>
+  </si>
+  <si>
+    <t>Stayed here while traveling with family felt right at home and tons of stuff nearby to do and if you like shopping the Galleria is not far away.. Rooms are super nice!We had a suite and it was like being at home while out of town kitchen refrigerator .. all the accessories you like to have when being somewhere for a week or longer</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r150881913-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>150881913</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Great location for extended stay business travel</t>
+  </si>
+  <si>
+    <t>Stayed here for 12 nights during travel for business in Dallas. Friendly staff and perfect for an extended stay. Although I had the option to use per diem for dining, the daily free breakfast and dinner options (a few nights/wk) was actually pretty decent and convenient if I didn't feel like eating out...esp breakfast. The location is great, quiet and close to a lot of dining options and just about anything else that you will need for an extended stay. Easy access to expressways also. They were in the process of renovating the kitchen area of suites 3 days into my stay, so construction noise was somewhat of a nuisance...also the water was turned off from 11a-3pm, which was inconvenient. Despite these issues, I was able to look past them and rate the hotel based on its benefits. After all, upgrading should not be penalized. Would recommend and definitely stay here anytime I'm back in Dallas. Oh almost forgot! They have free laundry machines that are of very good quality  including front load washers.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Jeff P, Director of Sales at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded January 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 12 nights during travel for business in Dallas. Friendly staff and perfect for an extended stay. Although I had the option to use per diem for dining, the daily free breakfast and dinner options (a few nights/wk) was actually pretty decent and convenient if I didn't feel like eating out...esp breakfast. The location is great, quiet and close to a lot of dining options and just about anything else that you will need for an extended stay. Easy access to expressways also. They were in the process of renovating the kitchen area of suites 3 days into my stay, so construction noise was somewhat of a nuisance...also the water was turned off from 11a-3pm, which was inconvenient. Despite these issues, I was able to look past them and rate the hotel based on its benefits. After all, upgrading should not be penalized. Would recommend and definitely stay here anytime I'm back in Dallas. Oh almost forgot! They have free laundry machines that are of very good quality  including front load washers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r147647020-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>147647020</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Pam is wonderful - great hotel</t>
+  </si>
+  <si>
+    <t>We come here every month to attend local meetings; the staff is great and we look forward to coming back often. The breakfasts and dinners also save us time and money. It is the wrong season but come back in the warmer part of the year the garden has fresh herbs and peppers and tomatoes. Best hotel i have stayed at in Texas in the past 2 years. Did I mention that Pam is wonderful?JGL</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r146826487-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>146826487</t>
+  </si>
+  <si>
+    <t>12/05/2012</t>
+  </si>
+  <si>
+    <t>comfortable, friendly &amp; functional</t>
+  </si>
+  <si>
+    <t>pleasant public areas, comfortable room with good bed, reliable HS internet, friendly and helpful staff, reasonable price/value, my second stay here and I would return again if in the area...................................................................</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r146569053-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>146569053</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Great Place for Long and Short term stays</t>
+  </si>
+  <si>
+    <t>I've stayed at the Staybridge Suites for almost 180  days over a  year and a half period starting in early 2011.  I have always felt welcome and cared for. The staff have always been top-notch and not many staff changes in that time either, which says something for the Management to keep the employees happy as as well as the Guests...  Already booked another stay coming up soon.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r141287690-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>141287690</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>Our stay has been fantastic and I would strongly suggest staying here if you ever get the opportunity.</t>
+  </si>
+  <si>
+    <t>We have been here a month and have thoroughly enjoyed it. We had some special needs and they went out of their way to meet and exceed our needs. Their staff is extremely friendly and outgoing yet always courteous and professional. The manager can usually be found visiting with the guests at break fast, clearing plates from the tables and wishing everyone a good day. The front desk employees always greet you on your way in and tell you to have a good day or evening.  I will come back again and would recommend everyone stay here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r141081348-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>141081348</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Staff makes you feel at home.</t>
+  </si>
+  <si>
+    <t>Staff is very eager to please.  Lots of smiles and very dependable.  I left my wedding band in the room on two occasions and  the staff was able to retrieve it for me for safekeeping until I returned from work.  This really put me at ease.  Small kitchen layout in every room in case you get tired of eating out.  There are also a few gas grills out back at your disposal.Dog friendly rooms available.Free shuttle available to take you anywhere within a 5 mile radius.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r140801957-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>140801957</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Paradise in Irving Tx.</t>
+  </si>
+  <si>
+    <t>This hotel was excellent. I travel for business most weeks and this was the most pleasant experience I have had at a hotel in years. From the breakfast staff right through to the maintenance crew the service was exceptional. The front desk crew had great recommendations for the local area. Chris and Shetal at the front desk were always more than helpful. I will definitely be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r138664165-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>138664165</t>
+  </si>
+  <si>
+    <t>08/28/2012</t>
+  </si>
+  <si>
+    <t>Disappointed!!!</t>
+  </si>
+  <si>
+    <t>I stayed for two nights here in a suite and was very, very disappointed!! We went to visit my brother in Irving and did not want to stay in another town so we could spend more time with our nieces and brother. to begin with our room was right next to the elevator and it was noisy, we didn't sleep very good because of it. The room was very very small for a "suite"! The pull-out "mattress" was thinner than a flat pancake! Not comfortable at all! The sheets on the queen bed had pen or marker stained on them. Why would they just not throw them away if it didn't come off when they washed them. Or maybe they were not clean sheets to begin with! The website states complimentary drinks daily and dinner snacks as well, but when we went downstairs to get a drink the kitchen was closed because it was after 10:30am....what? When I talked to the manager on duty at that time he said he would unlock it for us but one of the staff members said the kitchen help had just unlocked it so when I went back to  the kitchen the help  (spanish speaking lady who couldn't speak English well enough to understand) told me "oh no, iz' closed". I said the manager just told me he was goning to unlock it for us to get a drink, she insisted "iz' closed!" I...I stayed for two nights here in a suite and was very, very disappointed!! We went to visit my brother in Irving and did not want to stay in another town so we could spend more time with our nieces and brother. to begin with our room was right next to the elevator and it was noisy, we didn't sleep very good because of it. The room was very very small for a "suite"! The pull-out "mattress" was thinner than a flat pancake! Not comfortable at all! The sheets on the queen bed had pen or marker stained on them. Why would they just not throw them away if it didn't come off when they washed them. Or maybe they were not clean sheets to begin with! The website states complimentary drinks daily and dinner snacks as well, but when we went downstairs to get a drink the kitchen was closed because it was after 10:30am....what? When I talked to the manager on duty at that time he said he would unlock it for us but one of the staff members said the kitchen help had just unlocked it so when I went back to  the kitchen the help  (spanish speaking lady who couldn't speak English well enough to understand) told me "oh no, iz' closed". I said the manager just told me he was goning to unlock it for us to get a drink, she insisted "iz' closed!" I wish i could have seen her name tag but I couldn't. She was on duty on Saturday Aug. 25, 2012 in the am. Then there was only 1 roll of toilet tissue in the room when we checked in and we had to call up for towels! How ridiculous is that??? For what they charge a night, come on! Oh but wait, I'm not done yet. Late at night around 10pm we decided to sit out on the patio and have a couple of drinks and needed a bucket of ice. I did not once see an ice machine or even vending machines. It would have been nice since we had nieces visiting us. They wanted snacks that were affordable and not have to buy them from the sweet shop at the front desk and over pay. Anyway, the staff member on duty at 10pm on Saturday Aug. 25, 2012 was named Pam W. She was rude when I asked her for a bucket or pitcher of ice. She said to me "what do you need ice for?" I said "uh, I'd like some ice is all". She then looked at me like I was bothering her and then asked me what was my room number? I told her my room number and asked what for and she then preceded to tell me "well I can take you some ice to your room I guess". I then told her, no I asked for ice for our drinks because we were sitting out in the patio, that's what I said to you to begin with, why would you take it to my room? She then gave me an attitude and then got a pitcher of ice and said "here." Really??? This is hospitality?? I've stayed at Holiday Inn in Altus, Ok and have been treated like royalty there that I assumed this being one of their hotels too we would be treated the same but sadly we were not! Their continental breakfast was nothing to brag about either. Please think twice when looking to stay at this hotel. One positive is that my brother left one of his shirts in the room when we checked out on Sunday Aug. 26, 2012 and didn't realize it until monday morning so I called the hotel and spoke with a Montavious, (not sure if i spelled it right) but he was the front desk manager on duty on Monday morning, Aug. 27, 2012 and said he would talk to his head in housekeeping and get back with me either way and he did. He called me back and told me the shirt had been found and he asked me how I would like to get it returned and I told him that my brother would be by to pick it up that afternoon. He was very courteous over the phone. I wished we had had that type of hospitality when we were physically there!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Dallas-Las Colinas Area, responded to this reviewResponded September 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2012</t>
+  </si>
+  <si>
+    <t>I stayed for two nights here in a suite and was very, very disappointed!! We went to visit my brother in Irving and did not want to stay in another town so we could spend more time with our nieces and brother. to begin with our room was right next to the elevator and it was noisy, we didn't sleep very good because of it. The room was very very small for a "suite"! The pull-out "mattress" was thinner than a flat pancake! Not comfortable at all! The sheets on the queen bed had pen or marker stained on them. Why would they just not throw them away if it didn't come off when they washed them. Or maybe they were not clean sheets to begin with! The website states complimentary drinks daily and dinner snacks as well, but when we went downstairs to get a drink the kitchen was closed because it was after 10:30am....what? When I talked to the manager on duty at that time he said he would unlock it for us but one of the staff members said the kitchen help had just unlocked it so when I went back to  the kitchen the help  (spanish speaking lady who couldn't speak English well enough to understand) told me "oh no, iz' closed". I said the manager just told me he was goning to unlock it for us to get a drink, she insisted "iz' closed!" I...I stayed for two nights here in a suite and was very, very disappointed!! We went to visit my brother in Irving and did not want to stay in another town so we could spend more time with our nieces and brother. to begin with our room was right next to the elevator and it was noisy, we didn't sleep very good because of it. The room was very very small for a "suite"! The pull-out "mattress" was thinner than a flat pancake! Not comfortable at all! The sheets on the queen bed had pen or marker stained on them. Why would they just not throw them away if it didn't come off when they washed them. Or maybe they were not clean sheets to begin with! The website states complimentary drinks daily and dinner snacks as well, but when we went downstairs to get a drink the kitchen was closed because it was after 10:30am....what? When I talked to the manager on duty at that time he said he would unlock it for us but one of the staff members said the kitchen help had just unlocked it so when I went back to  the kitchen the help  (spanish speaking lady who couldn't speak English well enough to understand) told me "oh no, iz' closed". I said the manager just told me he was goning to unlock it for us to get a drink, she insisted "iz' closed!" I wish i could have seen her name tag but I couldn't. She was on duty on Saturday Aug. 25, 2012 in the am. Then there was only 1 roll of toilet tissue in the room when we checked in and we had to call up for towels! How ridiculous is that??? For what they charge a night, come on! Oh but wait, I'm not done yet. Late at night around 10pm we decided to sit out on the patio and have a couple of drinks and needed a bucket of ice. I did not once see an ice machine or even vending machines. It would have been nice since we had nieces visiting us. They wanted snacks that were affordable and not have to buy them from the sweet shop at the front desk and over pay. Anyway, the staff member on duty at 10pm on Saturday Aug. 25, 2012 was named Pam W. She was rude when I asked her for a bucket or pitcher of ice. She said to me "what do you need ice for?" I said "uh, I'd like some ice is all". She then looked at me like I was bothering her and then asked me what was my room number? I told her my room number and asked what for and she then preceded to tell me "well I can take you some ice to your room I guess". I then told her, no I asked for ice for our drinks because we were sitting out in the patio, that's what I said to you to begin with, why would you take it to my room? She then gave me an attitude and then got a pitcher of ice and said "here." Really??? This is hospitality?? I've stayed at Holiday Inn in Altus, Ok and have been treated like royalty there that I assumed this being one of their hotels too we would be treated the same but sadly we were not! Their continental breakfast was nothing to brag about either. Please think twice when looking to stay at this hotel. One positive is that my brother left one of his shirts in the room when we checked out on Sunday Aug. 26, 2012 and didn't realize it until monday morning so I called the hotel and spoke with a Montavious, (not sure if i spelled it right) but he was the front desk manager on duty on Monday morning, Aug. 27, 2012 and said he would talk to his head in housekeeping and get back with me either way and he did. He called me back and told me the shirt had been found and he asked me how I would like to get it returned and I told him that my brother would be by to pick it up that afternoon. He was very courteous over the phone. I wished we had had that type of hospitality when we were physically there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r136704275-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>136704275</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Great service but room needs help</t>
+  </si>
+  <si>
+    <t>The service at this hotel is fantastic. The staff was very friendly and responsive. The hotel accepts pets which was a must and many people had their dogs with them as we did. Even so the noise level was low and I never heard any barking apart from my own dog. 
+Breakfast was better than expected with a wide selection of cereals, yogurt, TX shaped waffles, fresh fruit, juices, coffee, tea, scrambled eggs and a different other hot item daily (bacon, sausage, pancakes, biscuits and gravy all served while we were there).
+The room was ... disappointing. The furniture and fixtures were all good. The separate bedroom was great traveling with kids. The sleeper sofa mattress was heavily stained and had springs poking out of the sides which likely ripped the provided sheets. The hotel obviously has foundation problems (common to almost all buildings in the area) and our walls were badly patched and painted with texture and color not quite matching what was there before and new cracks throughout. The bathroom door was too large for the space (appeared to be a wheelchair accessible door on the 3rd floor room with no handicapped features) resulting in difficulty closing or opening if at the toilet. The fridge and freezer were adjusted to the coldest settings but never really got that cold (ice cream stayed melted in freezer). The room was very clean though and daily housekeeping service is nice. The...The service at this hotel is fantastic. The staff was very friendly and responsive. The hotel accepts pets which was a must and many people had their dogs with them as we did. Even so the noise level was low and I never heard any barking apart from my own dog. Breakfast was better than expected with a wide selection of cereals, yogurt, TX shaped waffles, fresh fruit, juices, coffee, tea, scrambled eggs and a different other hot item daily (bacon, sausage, pancakes, biscuits and gravy all served while we were there).The room was ... disappointing. The furniture and fixtures were all good. The separate bedroom was great traveling with kids. The sleeper sofa mattress was heavily stained and had springs poking out of the sides which likely ripped the provided sheets. The hotel obviously has foundation problems (common to almost all buildings in the area) and our walls were badly patched and painted with texture and color not quite matching what was there before and new cracks throughout. The bathroom door was too large for the space (appeared to be a wheelchair accessible door on the 3rd floor room with no handicapped features) resulting in difficulty closing or opening if at the toilet. The fridge and freezer were adjusted to the coldest settings but never really got that cold (ice cream stayed melted in freezer). The room was very clean though and daily housekeeping service is nice. The bed is firm, which was great for my back, I have not slept that well in years.Overall I would be willing to stay here again and likely check it out in other places we may travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The service at this hotel is fantastic. The staff was very friendly and responsive. The hotel accepts pets which was a must and many people had their dogs with them as we did. Even so the noise level was low and I never heard any barking apart from my own dog. 
+Breakfast was better than expected with a wide selection of cereals, yogurt, TX shaped waffles, fresh fruit, juices, coffee, tea, scrambled eggs and a different other hot item daily (bacon, sausage, pancakes, biscuits and gravy all served while we were there).
+The room was ... disappointing. The furniture and fixtures were all good. The separate bedroom was great traveling with kids. The sleeper sofa mattress was heavily stained and had springs poking out of the sides which likely ripped the provided sheets. The hotel obviously has foundation problems (common to almost all buildings in the area) and our walls were badly patched and painted with texture and color not quite matching what was there before and new cracks throughout. The bathroom door was too large for the space (appeared to be a wheelchair accessible door on the 3rd floor room with no handicapped features) resulting in difficulty closing or opening if at the toilet. The fridge and freezer were adjusted to the coldest settings but never really got that cold (ice cream stayed melted in freezer). The room was very clean though and daily housekeeping service is nice. The...The service at this hotel is fantastic. The staff was very friendly and responsive. The hotel accepts pets which was a must and many people had their dogs with them as we did. Even so the noise level was low and I never heard any barking apart from my own dog. Breakfast was better than expected with a wide selection of cereals, yogurt, TX shaped waffles, fresh fruit, juices, coffee, tea, scrambled eggs and a different other hot item daily (bacon, sausage, pancakes, biscuits and gravy all served while we were there).The room was ... disappointing. The furniture and fixtures were all good. The separate bedroom was great traveling with kids. The sleeper sofa mattress was heavily stained and had springs poking out of the sides which likely ripped the provided sheets. The hotel obviously has foundation problems (common to almost all buildings in the area) and our walls were badly patched and painted with texture and color not quite matching what was there before and new cracks throughout. The bathroom door was too large for the space (appeared to be a wheelchair accessible door on the 3rd floor room with no handicapped features) resulting in difficulty closing or opening if at the toilet. The fridge and freezer were adjusted to the coldest settings but never really got that cold (ice cream stayed melted in freezer). The room was very clean though and daily housekeeping service is nice. The bed is firm, which was great for my back, I have not slept that well in years.Overall I would be willing to stay here again and likely check it out in other places we may travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r136190920-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>136190920</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>So pleased!</t>
+  </si>
+  <si>
+    <t>Me and my husband had a great time here. Our dogs were allowed and the pet fees were not outrageous like other hotels. We had a fun day today between the pool, corn hole, and basket ball which they supply! And they supply a free dinner 3 times a week with free beer and wine!! Doesn't get much better than that! And very clean. Some one said something about everything being out dated here but they are redoing a lot so I did not get that impression.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r131924510-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>131924510</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Love it!!!!!</t>
+  </si>
+  <si>
+    <t>My second stay at this hotel.  Would not hesitate to stay a 3rd time.  Hotel is great.  Nice hot breakfast in the morning.  In the evenings a nice "Happy Hour" with beer and wine selections.  Rooms are very spacious with a setting area, work desk, seperate bath room, full kitchen with refrigerator, stove, dish washer and sink.  My room was serviced well each day during my stay.  Bed very comfortable, and the hotel is very quiet at night.  Close to the airport and very convinient to shopping and restaurants.  Very good value for the money!!! I didn't use it, but the pool and hot tub area look to me very nice.  I did use the hotel shuttle service for a ride from the airport and they arrive promptly for pickup.  Without a doubt, I would stay again.  Very pleased!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My second stay at this hotel.  Would not hesitate to stay a 3rd time.  Hotel is great.  Nice hot breakfast in the morning.  In the evenings a nice "Happy Hour" with beer and wine selections.  Rooms are very spacious with a setting area, work desk, seperate bath room, full kitchen with refrigerator, stove, dish washer and sink.  My room was serviced well each day during my stay.  Bed very comfortable, and the hotel is very quiet at night.  Close to the airport and very convinient to shopping and restaurants.  Very good value for the money!!! I didn't use it, but the pool and hot tub area look to me very nice.  I did use the hotel shuttle service for a ride from the airport and they arrive promptly for pickup.  Without a doubt, I would stay again.  Very pleased!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r131771906-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>131771906</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel....Again!</t>
+  </si>
+  <si>
+    <t>We stayed here two years ago and enjoyed it, so naturally we came back to try it again.  Once again, we were not disappointed.  The staff was friendly, the hotel was clean and quiet, and the location was convenient and centrally located to several activities we had planned throughout the DFW area during our stay.  The two bedroom suite gives everyone in our family plenty of room to spread out, the full kitchen makes it great to stock up on snacks, and with three TVs, there's no fighting over the remote!  The full hot breakfast is just icing on the cake; it makes it a whole lot easier (and less expensive) than having to get everyone ready to go to a restaurant to get breakfast....just walk on down in your PJs and get your fill, or fill up your plate and take it back to your room!  My family loves it!  Anytime we go anywhere, we make it a point to try and find a Staybride Suites facility to stay at.  They are definitely at the top of our list for our vacation stays!  Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here two years ago and enjoyed it, so naturally we came back to try it again.  Once again, we were not disappointed.  The staff was friendly, the hotel was clean and quiet, and the location was convenient and centrally located to several activities we had planned throughout the DFW area during our stay.  The two bedroom suite gives everyone in our family plenty of room to spread out, the full kitchen makes it great to stock up on snacks, and with three TVs, there's no fighting over the remote!  The full hot breakfast is just icing on the cake; it makes it a whole lot easier (and less expensive) than having to get everyone ready to go to a restaurant to get breakfast....just walk on down in your PJs and get your fill, or fill up your plate and take it back to your room!  My family loves it!  Anytime we go anywhere, we make it a point to try and find a Staybride Suites facility to stay at.  They are definitely at the top of our list for our vacation stays!  Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r131257577-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>131257577</t>
+  </si>
+  <si>
+    <t>06/04/2012</t>
+  </si>
+  <si>
+    <t>No bells or whistles, but not bad!</t>
+  </si>
+  <si>
+    <t>Nice hotel, friendly staff and they are in the process of renovating. Good location close it highway access and eateries. The evening social is decent and serves its purpose, but nothing to write home about.The only negative was right before I left. The cleaning attendant was not on their A game that day. The towels had stains, and the room was not wiped down. Overall, the hotel is nice. Flat screen, really nice patio, pool and grill area. Its on my repeat liat if I  ever in the area again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r124017200-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>124017200</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>A Home From Home - Recommended</t>
+  </si>
+  <si>
+    <t>We stayed at the Las Colinas Staybridge Suites for 2 nights in late December after Christmas. It was our first stay in a Staybridge and we were genuinely impressed. A good location with easy access to the freeway, the facilities and customer service were of a very high standard, and the complimentary breakfast and evening Social were excellent. If this is indicative of the Staybridge brand, we'll definitely be returning to one in the future, and I would recommend this one to anybody looking for a cost-effective yet comfortable stay in Dallas.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r121891316-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>121891316</t>
+  </si>
+  <si>
+    <t>12/19/2011</t>
+  </si>
+  <si>
+    <t>Not Fancy but Functional!</t>
+  </si>
+  <si>
+    <t>This was my first stay in a suite type property. We had 3 rooms, two of which were 1 bedroom, 1 bathroom with a separate living room and a kitchenette attached to that living area. There was a full size refrigerator, microwave, toaster, coffee maker, dishes ,etc.. One of the rooms had 2 complete bedrooms, and was extremely spacious.The entire property was very clean, the bed was comfortable with a choice of varying pillow types. The property is off of the freeway, so noise is not a problem. The only reason I would not give this property 4 stars is that it is somewhat outdated in its furnishings and finishes.(ex.- outdated laminate on counter tops) If that's not a problem this is an excellent place.The free breakfast had a good assortment of cold and hot food. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first stay in a suite type property. We had 3 rooms, two of which were 1 bedroom, 1 bathroom with a separate living room and a kitchenette attached to that living area. There was a full size refrigerator, microwave, toaster, coffee maker, dishes ,etc.. One of the rooms had 2 complete bedrooms, and was extremely spacious.The entire property was very clean, the bed was comfortable with a choice of varying pillow types. The property is off of the freeway, so noise is not a problem. The only reason I would not give this property 4 stars is that it is somewhat outdated in its furnishings and finishes.(ex.- outdated laminate on counter tops) If that's not a problem this is an excellent place.The free breakfast had a good assortment of cold and hot food. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r119137731-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>119137731</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>Needs renovating</t>
+  </si>
+  <si>
+    <t>We've been coming here to this property for years.  While comfortable and convenient, the decor has not changed in over 6 years.  The carpets are worn, and there are many cracks on the ceilings and walls.  The property looks as if it's had one too many coats of paint to hide the years of wear.  The amenities are good:  breakfast, flat screen tv, internet, and beds are decently comfortable.  The housekeeping staff keeps the place neat and clean.  The front desk staff is friendly and accommodating.  It's sad that the owners do not see the need to take care of the decor or infrastructure.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r99944528-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>99944528</t>
+  </si>
+  <si>
+    <t>03/12/2011</t>
+  </si>
+  <si>
+    <t>they saved my life</t>
+  </si>
+  <si>
+    <t>I made the horrible mistake of going with another hotel for my 9 week stay initially. when i went to that hotel and was NOT HAPPY WITH IT, i googled nearby hotels for long term stays and called Staybridge. They had immediate availability for my 9 weeks and gave me a great rate. BEAUTIFUL BEAUTIFUL room!!! VERY VERY Clean and wonderful staff. they let me see the room before paying and i was sold right away. free shuttle, free laundry, free wiifi, good cable channels and beautiful lobby/lounge and outside area. GO TO THIS HOTEL. please dont make the mistake i did and go for cheap near the airport. the Las Colinas area is also very nice with LOTS of places to eat and shop (walmart, target, kohls, Kroger etc)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I made the horrible mistake of going with another hotel for my 9 week stay initially. when i went to that hotel and was NOT HAPPY WITH IT, i googled nearby hotels for long term stays and called Staybridge. They had immediate availability for my 9 weeks and gave me a great rate. BEAUTIFUL BEAUTIFUL room!!! VERY VERY Clean and wonderful staff. they let me see the room before paying and i was sold right away. free shuttle, free laundry, free wiifi, good cable channels and beautiful lobby/lounge and outside area. GO TO THIS HOTEL. please dont make the mistake i did and go for cheap near the airport. the Las Colinas area is also very nice with LOTS of places to eat and shop (walmart, target, kohls, Kroger etc)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r95450690-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>95450690</t>
+  </si>
+  <si>
+    <t>02/04/2011</t>
+  </si>
+  <si>
+    <t>Grrr.</t>
+  </si>
+  <si>
+    <t>Fire alarm went off in the middle of the night twice in three days, second time for HALF AN HOUR. First one was due to a power outage (evacuate the hotel because the power's down?). Two days later, we had a second fire alarm, at 2:30 AM, due to a broken water pipe. Sorry, that's NOT a fire, so what's up with the HALF HOUR OF EAR-SPLITTING NOISE forcing people out into a snowstorm?In between, there were nasty problems with internet infrastructure that severely hampered business communications, as well as work I was doing on presentations for customers. Hotel management and staff were pleasant and helpful, and did their best to help resolve problems, but sheesh!The only reason I booked this hotel was that I had to be in the area on business just prior to the Super Bowl, so hotel rooms were scarce. I'll be avoiding Staybridge Suites in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Fire alarm went off in the middle of the night twice in three days, second time for HALF AN HOUR. First one was due to a power outage (evacuate the hotel because the power's down?). Two days later, we had a second fire alarm, at 2:30 AM, due to a broken water pipe. Sorry, that's NOT a fire, so what's up with the HALF HOUR OF EAR-SPLITTING NOISE forcing people out into a snowstorm?In between, there were nasty problems with internet infrastructure that severely hampered business communications, as well as work I was doing on presentations for customers. Hotel management and staff were pleasant and helpful, and did their best to help resolve problems, but sheesh!The only reason I booked this hotel was that I had to be in the area on business just prior to the Super Bowl, so hotel rooms were scarce. I'll be avoiding Staybridge Suites in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r92886848-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>92886848</t>
+  </si>
+  <si>
+    <t>01/14/2011</t>
+  </si>
+  <si>
+    <t>Good stay for our trip to the Southwest Classic and Cowboys game</t>
+  </si>
+  <si>
+    <t>My wife and I and our daughter and son-in-law went to the Southwest Classic between the Arkansas Razorbacks and Texas A&amp;M Aggies and the Cowboys-Titans game the next day this past October.  I reserved rooms at the Staybridge Suites in Las Colinas because of the good rate,  the restaurants in the area and the convenience to Cowboys stadium.  
+Although the location is good, we had a difficult time finding it upon our arrival into Irving.  Even coming back from the Hog game we missed the turn.  But getting to and from the games were a breeze because we used the Bush toll road which had just been opened and few people knew about it or used it the weekend we were there.  
+The rooms were comfortable and spacious like all one bedroom suites at Staybridge Suites.  We were located in a room on the second floor adjacent to and above the lobby.  There were a lot of Tennessee Titan fans at the hotel and they filled the lobby when when we came in from dinner.  We were afraid that the noise would continue and prevent us from sleeping, but they dispersed soon after we got back and we didn't have any difficulty sleeping.  The next morning I enjoyed the selections available for their breakfast. 
+I had no problems with the use of the wi-fi in the room.  I did not have a printer with my laptop so I used the...My wife and I and our daughter and son-in-law went to the Southwest Classic between the Arkansas Razorbacks and Texas A&amp;M Aggies and the Cowboys-Titans game the next day this past October.  I reserved rooms at the Staybridge Suites in Las Colinas because of the good rate,  the restaurants in the area and the convenience to Cowboys stadium.  Although the location is good, we had a difficult time finding it upon our arrival into Irving.  Even coming back from the Hog game we missed the turn.  But getting to and from the games were a breeze because we used the Bush toll road which had just been opened and few people knew about it or used it the weekend we were there.  The rooms were comfortable and spacious like all one bedroom suites at Staybridge Suites.  We were located in a room on the second floor adjacent to and above the lobby.  There were a lot of Tennessee Titan fans at the hotel and they filled the lobby when when we came in from dinner.  We were afraid that the noise would continue and prevent us from sleeping, but they dispersed soon after we got back and we didn't have any difficulty sleeping.  The next morning I enjoyed the selections available for their breakfast. I had no problems with the use of the wi-fi in the room.  I did not have a printer with my laptop so I used the business center to print off tickets to the Texas Rangers American League Division Series game on that Sunday.  We were able to take in the Rangers game starting at noon and then go next door to the Cowboys game that started at 3:15.  It was quite a sporting weekend with the college football game Saturday and the MLB playoff game and NFL game on Sunday.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>My wife and I and our daughter and son-in-law went to the Southwest Classic between the Arkansas Razorbacks and Texas A&amp;M Aggies and the Cowboys-Titans game the next day this past October.  I reserved rooms at the Staybridge Suites in Las Colinas because of the good rate,  the restaurants in the area and the convenience to Cowboys stadium.  
+Although the location is good, we had a difficult time finding it upon our arrival into Irving.  Even coming back from the Hog game we missed the turn.  But getting to and from the games were a breeze because we used the Bush toll road which had just been opened and few people knew about it or used it the weekend we were there.  
+The rooms were comfortable and spacious like all one bedroom suites at Staybridge Suites.  We were located in a room on the second floor adjacent to and above the lobby.  There were a lot of Tennessee Titan fans at the hotel and they filled the lobby when when we came in from dinner.  We were afraid that the noise would continue and prevent us from sleeping, but they dispersed soon after we got back and we didn't have any difficulty sleeping.  The next morning I enjoyed the selections available for their breakfast. 
+I had no problems with the use of the wi-fi in the room.  I did not have a printer with my laptop so I used the...My wife and I and our daughter and son-in-law went to the Southwest Classic between the Arkansas Razorbacks and Texas A&amp;M Aggies and the Cowboys-Titans game the next day this past October.  I reserved rooms at the Staybridge Suites in Las Colinas because of the good rate,  the restaurants in the area and the convenience to Cowboys stadium.  Although the location is good, we had a difficult time finding it upon our arrival into Irving.  Even coming back from the Hog game we missed the turn.  But getting to and from the games were a breeze because we used the Bush toll road which had just been opened and few people knew about it or used it the weekend we were there.  The rooms were comfortable and spacious like all one bedroom suites at Staybridge Suites.  We were located in a room on the second floor adjacent to and above the lobby.  There were a lot of Tennessee Titan fans at the hotel and they filled the lobby when when we came in from dinner.  We were afraid that the noise would continue and prevent us from sleeping, but they dispersed soon after we got back and we didn't have any difficulty sleeping.  The next morning I enjoyed the selections available for their breakfast. I had no problems with the use of the wi-fi in the room.  I did not have a printer with my laptop so I used the business center to print off tickets to the Texas Rangers American League Division Series game on that Sunday.  We were able to take in the Rangers game starting at noon and then go next door to the Cowboys game that started at 3:15.  It was quite a sporting weekend with the college football game Saturday and the MLB playoff game and NFL game on Sunday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r48851479-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>48851479</t>
+  </si>
+  <si>
+    <t>11/09/2009</t>
+  </si>
+  <si>
+    <t>Extremely Spacious</t>
+  </si>
+  <si>
+    <t>This hotel is great! Well, we arrived about 3 PM and checked in.  (The front desk lady was very nice)  We then ventured to our 1 bedroom suite. Our room was down a few hallways.(a very big hotel) Anyway, our room had a bedroom with a king bed and an ACTUAL closet, a living room with sofa and desk.  A kitchen with a full size fridge and ice maker, mini stove top, dish washer, silverware,pots, and such were provided.  Our room was wonderful... they have a courtyard with a salt water pool, and a sports court as well as a grilling area...  breakfast was delicious and free.. it consisted of bacon or sausage, toast or hashbrown, fruit salad, waffle maker, pasties, cereal, boiled eggs, fountain cokes, juices, and milk... a library, business center, fitness center, and convenient store all on site... really nice people here... great hotel..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>This hotel is great! Well, we arrived about 3 PM and checked in.  (The front desk lady was very nice)  We then ventured to our 1 bedroom suite. Our room was down a few hallways.(a very big hotel) Anyway, our room had a bedroom with a king bed and an ACTUAL closet, a living room with sofa and desk.  A kitchen with a full size fridge and ice maker, mini stove top, dish washer, silverware,pots, and such were provided.  Our room was wonderful... they have a courtyard with a salt water pool, and a sports court as well as a grilling area...  breakfast was delicious and free.. it consisted of bacon or sausage, toast or hashbrown, fruit salad, waffle maker, pasties, cereal, boiled eggs, fountain cokes, juices, and milk... a library, business center, fitness center, and convenient store all on site... really nice people here... great hotel..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r20266714-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>20266714</t>
+  </si>
+  <si>
+    <t>09/22/2008</t>
+  </si>
+  <si>
+    <t>Great place for an extended stay</t>
+  </si>
+  <si>
+    <t>The service here was exceptional - five star service at a three star price. The staff were all very helpful with any requests I had. As a tourist, the location was not ideal, as you need a car to get around, but as I was there for business, their free shuttle bus (free to within a 5 mile radius) was great. I felt safe walking on the streets to the local restaurants, but a car was really needed.July/August is a very hot time of year - every day reached over 37C/100F (and I was there for 18 nights), but the pool and outdoor area was great. There was an undercover BBQ area which was available to be used any time. On Tuesdays-Thursdays, there was a happy-hour type setup which offered free unlimited beer, wine, soft drink and nibbles. Plus the daily breakfast also offered sufficient variety.The room (323) was a one bedroom apartment which was very spacious and offered the usual comforts. The room was in great condition and very clean.PS If you're a keen shopper, don't miss the Allen Premium outlets in Allen (about 40min drive - $80 one way cab fare) or the Galleria (near down town) which was a 15 minute drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>The service here was exceptional - five star service at a three star price. The staff were all very helpful with any requests I had. As a tourist, the location was not ideal, as you need a car to get around, but as I was there for business, their free shuttle bus (free to within a 5 mile radius) was great. I felt safe walking on the streets to the local restaurants, but a car was really needed.July/August is a very hot time of year - every day reached over 37C/100F (and I was there for 18 nights), but the pool and outdoor area was great. There was an undercover BBQ area which was available to be used any time. On Tuesdays-Thursdays, there was a happy-hour type setup which offered free unlimited beer, wine, soft drink and nibbles. Plus the daily breakfast also offered sufficient variety.The room (323) was a one bedroom apartment which was very spacious and offered the usual comforts. The room was in great condition and very clean.PS If you're a keen shopper, don't miss the Allen Premium outlets in Allen (about 40min drive - $80 one way cab fare) or the Galleria (near down town) which was a 15 minute drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r10011976-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>10011976</t>
+  </si>
+  <si>
+    <t>09/27/2007</t>
+  </si>
+  <si>
+    <t>Kids will be Kids...so look out!</t>
+  </si>
+  <si>
+    <t>My first Staybridge experience and I loved the chain. 
+However this week was probably a bad one for this hotel. As the other reviewer noted the kids romped all over the hotel. They dominated the breakfast and dinner buffets and left trash everywhere. Basically they total overwhelmed the hotel staff. The staff tried their best but they are used to dealing with b- travelers not middle schoolers and could not keep up. I had a nice room on the inner court yard. However the kids stayed out in the pool and the sports court making noise past ten every night. I cant believe they did well in their baseball tournament.  The parents spent most of their time outside  in the nice gazebo drinking from what I could see and from what I stepped over in the  next morning. This was not a reflection on the hotel more a reflection on poor guest etiquette!  I liked the hotel even in spite of the raging youngsters. 
+The hotel is itself is very nice. The rooms are spacious. The furnishing are excellent. The windows open which is a plus with me ( when kids are not out). I found the rooms very clean and serviceable. As noted before there is a nightly buffet where they served real food (grilled chicken, pasta, beer….). Breakfast Buffet was outstanding as well - just go early to beat the rush.  The hotel has a gym, pool and...My first Staybridge experience and I loved the chain. However this week was probably a bad one for this hotel. As the other reviewer noted the kids romped all over the hotel. They dominated the breakfast and dinner buffets and left trash everywhere. Basically they total overwhelmed the hotel staff. The staff tried their best but they are used to dealing with b- travelers not middle schoolers and could not keep up. I had a nice room on the inner court yard. However the kids stayed out in the pool and the sports court making noise past ten every night. I cant believe they did well in their baseball tournament.  The parents spent most of their time outside  in the nice gazebo drinking from what I could see and from what I stepped over in the  next morning. This was not a reflection on the hotel more a reflection on poor guest etiquette!  I liked the hotel even in spite of the raging youngsters. The hotel is itself is very nice. The rooms are spacious. The furnishing are excellent. The windows open which is a plus with me ( when kids are not out). I found the rooms very clean and serviceable. As noted before there is a nightly buffet where they served real food (grilled chicken, pasta, beer….). Breakfast Buffet was outstanding as well - just go early to beat the rush.  The hotel has a gym, pool and a sports court. The area around is a corporate which is fine by me. There were some shops and fast food with in walking distance if needed. The parking lot is a tight fit for Texas sized cars but not a major issue. Running in the area is fine as well as there were nice sidewalks and the area was deserted out side the 9-5 hours. I would stay here again, just watch the parking lots for mini vans or Suburban's with writing on the windows!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>My first Staybridge experience and I loved the chain. 
+However this week was probably a bad one for this hotel. As the other reviewer noted the kids romped all over the hotel. They dominated the breakfast and dinner buffets and left trash everywhere. Basically they total overwhelmed the hotel staff. The staff tried their best but they are used to dealing with b- travelers not middle schoolers and could not keep up. I had a nice room on the inner court yard. However the kids stayed out in the pool and the sports court making noise past ten every night. I cant believe they did well in their baseball tournament.  The parents spent most of their time outside  in the nice gazebo drinking from what I could see and from what I stepped over in the  next morning. This was not a reflection on the hotel more a reflection on poor guest etiquette!  I liked the hotel even in spite of the raging youngsters. 
+The hotel is itself is very nice. The rooms are spacious. The furnishing are excellent. The windows open which is a plus with me ( when kids are not out). I found the rooms very clean and serviceable. As noted before there is a nightly buffet where they served real food (grilled chicken, pasta, beer….). Breakfast Buffet was outstanding as well - just go early to beat the rush.  The hotel has a gym, pool and...My first Staybridge experience and I loved the chain. However this week was probably a bad one for this hotel. As the other reviewer noted the kids romped all over the hotel. They dominated the breakfast and dinner buffets and left trash everywhere. Basically they total overwhelmed the hotel staff. The staff tried their best but they are used to dealing with b- travelers not middle schoolers and could not keep up. I had a nice room on the inner court yard. However the kids stayed out in the pool and the sports court making noise past ten every night. I cant believe they did well in their baseball tournament.  The parents spent most of their time outside  in the nice gazebo drinking from what I could see and from what I stepped over in the  next morning. This was not a reflection on the hotel more a reflection on poor guest etiquette!  I liked the hotel even in spite of the raging youngsters. The hotel is itself is very nice. The rooms are spacious. The furnishing are excellent. The windows open which is a plus with me ( when kids are not out). I found the rooms very clean and serviceable. As noted before there is a nightly buffet where they served real food (grilled chicken, pasta, beer….). Breakfast Buffet was outstanding as well - just go early to beat the rush.  The hotel has a gym, pool and a sports court. The area around is a corporate which is fine by me. There were some shops and fast food with in walking distance if needed. The parking lot is a tight fit for Texas sized cars but not a major issue. Running in the area is fine as well as there were nice sidewalks and the area was deserted out side the 9-5 hours. I would stay here again, just watch the parking lots for mini vans or Suburban's with writing on the windows!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r1741801-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>1741801</t>
+  </si>
+  <si>
+    <t>03/23/2004</t>
+  </si>
+  <si>
+    <t>Great place for your family</t>
+  </si>
+  <si>
+    <t>Hotel was more than we expected. The staff was friendly and helpful, the managers reception is better than some buffet's I've eaten at. We stayed in a 2 bedroom with 2 teen aged children. The room was laid out perfect, with a TV in each bedroom and the main room. The courtyard is setup with a retaining wall behind it, giving guest the feeling of complete privacy. Pool was clean and heated. Landscaped grounds were great. When ever we wanted to go somewhere in Dallas/Fort Worth, and we did not know the way, we just went to the free business center which had 2 computers and would map out and print instructions. Irving is centrally located and the hotel is in a upscale business area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was more than we expected. The staff was friendly and helpful, the managers reception is better than some buffet's I've eaten at. We stayed in a 2 bedroom with 2 teen aged children. The room was laid out perfect, with a TV in each bedroom and the main room. The courtyard is setup with a retaining wall behind it, giving guest the feeling of complete privacy. Pool was clean and heated. Landscaped grounds were great. When ever we wanted to go somewhere in Dallas/Fort Worth, and we did not know the way, we just went to the free business center which had 2 computers and would map out and print instructions. Irving is centrally located and the hotel is in a upscale business area.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2662,5805 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>133</v>
+      </c>
+      <c r="X14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>168</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>217</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>132</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>258</v>
+      </c>
+      <c r="X33" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s">
+        <v>265</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>266</v>
+      </c>
+      <c r="X34" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>275</v>
+      </c>
+      <c r="X35" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>284</v>
+      </c>
+      <c r="X36" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>293</v>
+      </c>
+      <c r="X37" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>301</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>302</v>
+      </c>
+      <c r="X38" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>311</v>
+      </c>
+      <c r="X39" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>319</v>
+      </c>
+      <c r="O40" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>320</v>
+      </c>
+      <c r="X40" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>324</v>
+      </c>
+      <c r="J41" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" t="s">
+        <v>326</v>
+      </c>
+      <c r="L41" t="s">
+        <v>327</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>328</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>329</v>
+      </c>
+      <c r="X41" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" t="s">
+        <v>334</v>
+      </c>
+      <c r="K42" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>337</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>338</v>
+      </c>
+      <c r="X42" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>346</v>
+      </c>
+      <c r="X43" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>350</v>
+      </c>
+      <c r="J44" t="s">
+        <v>351</v>
+      </c>
+      <c r="K44" t="s">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s">
+        <v>353</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>354</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>355</v>
+      </c>
+      <c r="X44" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>358</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>359</v>
+      </c>
+      <c r="J45" t="s">
+        <v>360</v>
+      </c>
+      <c r="K45" t="s">
+        <v>361</v>
+      </c>
+      <c r="L45" t="s">
+        <v>362</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>354</v>
+      </c>
+      <c r="O45" t="s">
+        <v>150</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>363</v>
+      </c>
+      <c r="X45" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>301</v>
+      </c>
+      <c r="O46" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>371</v>
+      </c>
+      <c r="X46" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>374</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>375</v>
+      </c>
+      <c r="J47" t="s">
+        <v>376</v>
+      </c>
+      <c r="K47" t="s">
+        <v>377</v>
+      </c>
+      <c r="L47" t="s">
+        <v>378</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" t="s">
+        <v>110</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>388</v>
+      </c>
+      <c r="X48" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>392</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>394</v>
+      </c>
+      <c r="L49" t="s">
+        <v>395</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>379</v>
+      </c>
+      <c r="O49" t="s">
+        <v>93</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>396</v>
+      </c>
+      <c r="X49" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>404</v>
+      </c>
+      <c r="O50" t="s">
+        <v>110</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>405</v>
+      </c>
+      <c r="X50" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>409</v>
+      </c>
+      <c r="J51" t="s">
+        <v>410</v>
+      </c>
+      <c r="K51" t="s">
+        <v>411</v>
+      </c>
+      <c r="L51" t="s">
+        <v>412</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>413</v>
+      </c>
+      <c r="O51" t="s">
+        <v>93</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>414</v>
+      </c>
+      <c r="X51" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>417</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>418</v>
+      </c>
+      <c r="J52" t="s">
+        <v>419</v>
+      </c>
+      <c r="K52" t="s">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s">
+        <v>421</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>413</v>
+      </c>
+      <c r="O52" t="s">
+        <v>93</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>422</v>
+      </c>
+      <c r="X52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>426</v>
+      </c>
+      <c r="J53" t="s">
+        <v>427</v>
+      </c>
+      <c r="K53" t="s">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s">
+        <v>429</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>430</v>
+      </c>
+      <c r="O53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>431</v>
+      </c>
+      <c r="X53" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>434</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>435</v>
+      </c>
+      <c r="J54" t="s">
+        <v>436</v>
+      </c>
+      <c r="K54" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s">
+        <v>438</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>439</v>
+      </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>440</v>
+      </c>
+      <c r="X54" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>444</v>
+      </c>
+      <c r="J55" t="s">
+        <v>445</v>
+      </c>
+      <c r="K55" t="s">
+        <v>446</v>
+      </c>
+      <c r="L55" t="s">
+        <v>447</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>448</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>449</v>
+      </c>
+      <c r="X55" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>452</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>453</v>
+      </c>
+      <c r="J56" t="s">
+        <v>454</v>
+      </c>
+      <c r="K56" t="s">
+        <v>455</v>
+      </c>
+      <c r="L56" t="s">
+        <v>456</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>457</v>
+      </c>
+      <c r="O56" t="s">
+        <v>93</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>458</v>
+      </c>
+      <c r="X56" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>461</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J57" t="s">
+        <v>463</v>
+      </c>
+      <c r="K57" t="s">
+        <v>464</v>
+      </c>
+      <c r="L57" t="s">
+        <v>465</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>457</v>
+      </c>
+      <c r="O57" t="s">
+        <v>93</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>466</v>
+      </c>
+      <c r="X57" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>469</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>470</v>
+      </c>
+      <c r="J58" t="s">
+        <v>463</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
+        <v>472</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>473</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>466</v>
+      </c>
+      <c r="X58" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>475</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>476</v>
+      </c>
+      <c r="J59" t="s">
+        <v>477</v>
+      </c>
+      <c r="K59" t="s">
+        <v>478</v>
+      </c>
+      <c r="L59" t="s">
+        <v>479</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>480</v>
+      </c>
+      <c r="X59" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+      <c r="L60" t="s">
+        <v>487</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>448</v>
+      </c>
+      <c r="O60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>488</v>
+      </c>
+      <c r="X60" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>491</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>492</v>
+      </c>
+      <c r="J61" t="s">
+        <v>493</v>
+      </c>
+      <c r="K61" t="s">
+        <v>494</v>
+      </c>
+      <c r="L61" t="s">
+        <v>495</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>473</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>496</v>
+      </c>
+      <c r="X61" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>499</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>500</v>
+      </c>
+      <c r="J62" t="s">
+        <v>501</v>
+      </c>
+      <c r="K62" t="s">
+        <v>502</v>
+      </c>
+      <c r="L62" t="s">
+        <v>503</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>504</v>
+      </c>
+      <c r="O62" t="s">
+        <v>93</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>505</v>
+      </c>
+      <c r="X62" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>508</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>509</v>
+      </c>
+      <c r="J63" t="s">
+        <v>510</v>
+      </c>
+      <c r="K63" t="s">
+        <v>511</v>
+      </c>
+      <c r="L63" t="s">
+        <v>512</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>513</v>
+      </c>
+      <c r="O63" t="s">
+        <v>93</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>514</v>
+      </c>
+      <c r="X63" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>517</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>518</v>
+      </c>
+      <c r="J64" t="s">
+        <v>519</v>
+      </c>
+      <c r="K64" t="s">
+        <v>478</v>
+      </c>
+      <c r="L64" t="s">
+        <v>520</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>521</v>
+      </c>
+      <c r="O64" t="s">
+        <v>93</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X64" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>525</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>526</v>
+      </c>
+      <c r="J65" t="s">
+        <v>527</v>
+      </c>
+      <c r="K65" t="s">
+        <v>528</v>
+      </c>
+      <c r="L65" t="s">
+        <v>529</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>530</v>
+      </c>
+      <c r="O65" t="s">
+        <v>93</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>531</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>532</v>
+      </c>
+      <c r="J66" t="s">
+        <v>533</v>
+      </c>
+      <c r="K66" t="s">
+        <v>534</v>
+      </c>
+      <c r="L66" t="s">
+        <v>535</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>536</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>537</v>
+      </c>
+      <c r="X66" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>540</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>541</v>
+      </c>
+      <c r="J67" t="s">
+        <v>542</v>
+      </c>
+      <c r="K67" t="s">
+        <v>543</v>
+      </c>
+      <c r="L67" t="s">
+        <v>544</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>537</v>
+      </c>
+      <c r="X67" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>546</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>547</v>
+      </c>
+      <c r="J68" t="s">
+        <v>548</v>
+      </c>
+      <c r="K68" t="s">
+        <v>549</v>
+      </c>
+      <c r="L68" t="s">
+        <v>550</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>552</v>
+      </c>
+      <c r="J69" t="s">
+        <v>553</v>
+      </c>
+      <c r="K69" t="s">
+        <v>554</v>
+      </c>
+      <c r="L69" t="s">
+        <v>555</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>556</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>557</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>558</v>
+      </c>
+      <c r="J70" t="s">
+        <v>559</v>
+      </c>
+      <c r="K70" t="s">
+        <v>560</v>
+      </c>
+      <c r="L70" t="s">
+        <v>561</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>562</v>
+      </c>
+      <c r="O70" t="s">
+        <v>93</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>563</v>
+      </c>
+      <c r="X70" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>566</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>567</v>
+      </c>
+      <c r="J71" t="s">
+        <v>568</v>
+      </c>
+      <c r="K71" t="s">
+        <v>569</v>
+      </c>
+      <c r="L71" t="s">
+        <v>570</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>571</v>
+      </c>
+      <c r="O71" t="s">
+        <v>93</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>572</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>573</v>
+      </c>
+      <c r="J72" t="s">
+        <v>574</v>
+      </c>
+      <c r="K72" t="s">
+        <v>575</v>
+      </c>
+      <c r="L72" t="s">
+        <v>576</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>577</v>
+      </c>
+      <c r="O72" t="s">
+        <v>93</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>578</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>579</v>
+      </c>
+      <c r="J73" t="s">
+        <v>580</v>
+      </c>
+      <c r="K73" t="s">
+        <v>581</v>
+      </c>
+      <c r="L73" t="s">
+        <v>582</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>577</v>
+      </c>
+      <c r="O73" t="s">
+        <v>93</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>583</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>584</v>
+      </c>
+      <c r="J74" t="s">
+        <v>585</v>
+      </c>
+      <c r="K74" t="s">
+        <v>586</v>
+      </c>
+      <c r="L74" t="s">
+        <v>587</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>588</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>589</v>
+      </c>
+      <c r="J75" t="s">
+        <v>590</v>
+      </c>
+      <c r="K75" t="s">
+        <v>591</v>
+      </c>
+      <c r="L75" t="s">
+        <v>592</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>593</v>
+      </c>
+      <c r="O75" t="s">
+        <v>93</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>594</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>595</v>
+      </c>
+      <c r="J76" t="s">
+        <v>596</v>
+      </c>
+      <c r="K76" t="s">
+        <v>597</v>
+      </c>
+      <c r="L76" t="s">
+        <v>598</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>599</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>600</v>
+      </c>
+      <c r="J77" t="s">
+        <v>601</v>
+      </c>
+      <c r="K77" t="s">
+        <v>602</v>
+      </c>
+      <c r="L77" t="s">
+        <v>603</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>556</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>604</v>
+      </c>
+      <c r="X77" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>608</v>
+      </c>
+      <c r="J78" t="s">
+        <v>609</v>
+      </c>
+      <c r="K78" t="s">
+        <v>610</v>
+      </c>
+      <c r="L78" t="s">
+        <v>611</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>556</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>613</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>614</v>
+      </c>
+      <c r="J79" t="s">
+        <v>615</v>
+      </c>
+      <c r="K79" t="s">
+        <v>616</v>
+      </c>
+      <c r="L79" t="s">
+        <v>617</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>618</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>619</v>
+      </c>
+      <c r="J80" t="s">
+        <v>620</v>
+      </c>
+      <c r="K80" t="s">
+        <v>621</v>
+      </c>
+      <c r="L80" t="s">
+        <v>622</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>623</v>
+      </c>
+      <c r="O80" t="s">
+        <v>93</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>625</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>626</v>
+      </c>
+      <c r="J81" t="s">
+        <v>627</v>
+      </c>
+      <c r="K81" t="s">
+        <v>628</v>
+      </c>
+      <c r="L81" t="s">
+        <v>629</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>623</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>631</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>632</v>
+      </c>
+      <c r="J82" t="s">
+        <v>633</v>
+      </c>
+      <c r="K82" t="s">
+        <v>634</v>
+      </c>
+      <c r="L82" t="s">
+        <v>635</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>636</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>637</v>
+      </c>
+      <c r="J83" t="s">
+        <v>638</v>
+      </c>
+      <c r="K83" t="s">
+        <v>639</v>
+      </c>
+      <c r="L83" t="s">
+        <v>640</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>641</v>
+      </c>
+      <c r="O83" t="s">
+        <v>110</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>642</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>643</v>
+      </c>
+      <c r="J84" t="s">
+        <v>644</v>
+      </c>
+      <c r="K84" t="s">
+        <v>645</v>
+      </c>
+      <c r="L84" t="s">
+        <v>646</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>641</v>
+      </c>
+      <c r="O84" t="s">
+        <v>93</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>648</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>649</v>
+      </c>
+      <c r="J85" t="s">
+        <v>650</v>
+      </c>
+      <c r="K85" t="s">
+        <v>651</v>
+      </c>
+      <c r="L85" t="s">
+        <v>652</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>653</v>
+      </c>
+      <c r="O85" t="s">
+        <v>93</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>654</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>655</v>
+      </c>
+      <c r="J86" t="s">
+        <v>656</v>
+      </c>
+      <c r="K86" t="s">
+        <v>657</v>
+      </c>
+      <c r="L86" t="s">
+        <v>658</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>659</v>
+      </c>
+      <c r="O86" t="s">
+        <v>93</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>661</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>662</v>
+      </c>
+      <c r="J87" t="s">
+        <v>663</v>
+      </c>
+      <c r="K87" t="s">
+        <v>664</v>
+      </c>
+      <c r="L87" t="s">
+        <v>665</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>666</v>
+      </c>
+      <c r="O87" t="s">
+        <v>93</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>668</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>669</v>
+      </c>
+      <c r="J88" t="s">
+        <v>670</v>
+      </c>
+      <c r="K88" t="s">
+        <v>671</v>
+      </c>
+      <c r="L88" t="s">
+        <v>672</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>673</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>675</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>676</v>
+      </c>
+      <c r="J89" t="s">
+        <v>677</v>
+      </c>
+      <c r="K89" t="s">
+        <v>678</v>
+      </c>
+      <c r="L89" t="s">
+        <v>679</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>680</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>682</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>683</v>
+      </c>
+      <c r="J90" t="s">
+        <v>684</v>
+      </c>
+      <c r="K90" t="s">
+        <v>685</v>
+      </c>
+      <c r="L90" t="s">
+        <v>686</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>687</v>
+      </c>
+      <c r="O90" t="s">
+        <v>93</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>689</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>690</v>
+      </c>
+      <c r="J91" t="s">
+        <v>691</v>
+      </c>
+      <c r="K91" t="s">
+        <v>692</v>
+      </c>
+      <c r="L91" t="s">
+        <v>693</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>694</v>
+      </c>
+      <c r="O91" t="s">
+        <v>93</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39207</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>696</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>697</v>
+      </c>
+      <c r="J92" t="s">
+        <v>698</v>
+      </c>
+      <c r="K92" t="s">
+        <v>699</v>
+      </c>
+      <c r="L92" t="s">
+        <v>700</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_699.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_699.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="792">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Vitoluigi</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Christopher T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r560859564-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Crashman75683</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r533793604-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>gsteed2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r517820302-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>I selected the Staybridge Suites in the Los Colinas area because I am an IHG member, I like that area of Dallas and other reviews were positive. I am glad I did. I was very late arriving to check- in (dont ask about long airline delays) and was allocated Rm 345 by a helpful recepionist who clearly explained all I needed to know.My room was more studio than suite but it was very comfortable and functioned perfectly for my needs for work and sleep (great bed!) and the fridge was well used . The air con was needed 24/7 and worked well. It was not noisy and there was no inside or outside noise during my 7 day stay.I used the free shuttle, laundry and had the free breakfast and everything was great. I had a couple of questions that the young lady (weekdays during the day) was always incredibly helpful in answering. Sorry I forgot her name but she really was exceptional.As is clearly explaind in the hotal information there is not a full daily room service but the daily quick refresh was more than adequate and if additional room cleaninging is required it is always given.Staybridge Suites is close to a lot of nice restaurants and the shuttle will take you if needed. The Manager and staff were very friendly when I checked out. Big thumbs upo to Staybridge Suites.More</t>
   </si>
   <si>
+    <t>Tina C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r508838941-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>shellydehart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r505513098-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>My family of 4 rated this room a 7… Pulling up this place looks like it’s really nice but once entering the room we found huge stains on the couch and carpet looked dirty. Overall cleanliness was not good. Also we felt breakfast was served kinda late. Good points though were the bedroom was separate from the living room area. Kitchen was small but had enough room with a bar top as your table. I do recommend the hotel add Cajun Crab right up the hill from them to their list of restaurants as the food there was amazing.More</t>
   </si>
   <si>
+    <t>Annie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r485642275-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>We spent the night here following a day visit to UT Southwestern Medical Center. I'm pretty picky when it comes to hotels, and this Staybridge did not disappoint!  The whole hotel was spotless and very nice. The room was well appointed and clean and had everything one needed to cook, rest, work, or relax in comfort. The outdoor pool and sports area was also very nice!  We will DEFINITELY be staying here again on our trips to Dallas in the future!More</t>
   </si>
   <si>
+    <t>Richard O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r485069967-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>The courtyard of this particular place was great with barbecue grill and basketball court and a place for smokers to slope as well. Absolutely perfect for a family reunion's or get-togethers. Enjoy staying here without worry of any kindMore</t>
   </si>
   <si>
+    <t>Tony H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r483337002-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Tommi K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r477611183-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>aleighpratt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r471628722-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>I absolutely loved staying here! I was here for two 2 week trips for work and the people who worked here were amazing. They were so accommodating and helpful with everything. I would absolutely recommend staying here if you're going to be in the Las Colinas area.</t>
   </si>
   <si>
+    <t>Dennis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r471238166-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>We have stayed here during a business trip for a week and it is a great place to stay in this area! I have been here 4 years ago and went here again and it is still great. Large and comfortable rooms with a great service! Thank you</t>
   </si>
   <si>
+    <t>Ashley L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r456798442-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>I spent around 6 months staying at this hotel 5 days per week. I traveled with my dog and I could not have asked for a more enjoyable experience. The staff (from housekeeping to management) were more than accommodating when my schedule would change on short notice. They welcomed me at every check-in and always knew both me and my dog by name. The staff at this hotel made travelling much easier and less stressful. The rooms were always clean and the ameneties were in proper working order. On two occasions I requested a room change because the previous occupant had smoked in the room and the staff accommodated me immediately with no hesitation. The showers didn't always have strong water pressure but this is common at peak shower-times. The free breakfast was freshly cooked and varied daily however it was fairly bland. The evening meal was much the same but at a $0.00 bill it was better than McDonald's most nights. The hotel became my home away from home and I couldn't be more thankful for the staff who went beyond expectations to make me feel welcome and comfortable. I am a loyal StayBridge guest because of this experience.More</t>
   </si>
   <si>
+    <t>gernbell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r454333842-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -450,6 +492,9 @@
     <t>I recently spent 6 months at this location for business, the staff is down right awesome.  I would like to mention some by name, Shatel, Collin, Taylor and most importantly Heidi, all made our stay fantastic!  Great food at the social hour and everyone went out of their way to make my stay enjoyable.  Congrats to all the staff for being so hospitable and friendly, I will recommend the staybridge to anyone traveling to that area.  Many thanks again, you were awesome!Regards,Gerry BellantMore</t>
   </si>
   <si>
+    <t>wade_marcia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r445688158-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -478,6 +523,9 @@
   </si>
   <si>
     <t>The location was great and close to many stores and gas stations. The room was very clean and looked awesome. The front desk employees were very pleasant, nice and helpful. Thank you for making my stay great! I will be back!More</t>
+  </si>
+  <si>
+    <t>AN6pack</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r441934108-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -514,6 +562,9 @@
 Overall great...As a family of 6 it becomes more and more difficult to find hotels to accommodate us as the kids get bigger. This was perfect!The 2 Br suite had 4 beds including the sofa bed. There was eating &amp; seating space for all of us as well in the living area of the suite. Two full bathrooms was a great bonus. We were in town for a soccer tournament so breakfast was not early enough for the ones who had to be at a game by 7:30 Am but was very enjoyable for the ones who stayed behind. Very tasty hot choices- the kids loved the hashbrown patties &amp; pancakes!I loved having a full coffee pot in the room so I could have coffee before the kids were ready to go eat.The room could use some updates but was clean &amp; spacious. We were on ground floor on an outside wing &amp; we were amazed how quite it was! Never heard a sound from the hall or above us! The only noise issue we had was the dishwasher that housekeeping had started while we were out... It was so LOUD we could hardly be in the room... But there is a dishwasher!! We had trouble regulating the heat as well but that was only an issue while we were in the living room so not a big deal since we were mainly there to sleep!Overall great stay &amp; we would definitely return! The kids want to return when it's not raining so they can utilize the great basketball court &amp; pool! More</t>
   </si>
   <si>
+    <t>chele531</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r440984091-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -535,6 +586,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Ferdinand R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r438535225-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -548,6 +602,9 @@
   </si>
   <si>
     <t>I like this place... their staff does Southern Hospitality at its best.Outside courtyard has bbq area, pool, basketball, and firepit area to lounge in...Specially Mondays to Wednesdays, they offer free hospitality food and beverage... not to mention daily breakfast with multiple choices.I love this place...</t>
+  </si>
+  <si>
+    <t>stacichelle</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r430902423-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -578,6 +635,9 @@
 Everything would've been perfect if it weren't for the noise. Hands down would've made for 4 and a half or even 5 stars, but not being able to sleep because we could hear noise that was so loud it made our kitchen rattle...nope, honestly probably deserves one...Firstly, this hotel is beautiful and welcoming. My husband and I are staying here to celebrate our anniversary together and visit the state Fair. The staff was very friendly and helpful. The beds are comfy and the kitchen is surprisingly very clean, as well as every other aspect of our room. It's top notch.HOWEVER, we got ZERO sleep our first night. The guests above us presumably hosted a bowling tournament in their room until about 1:30a.m. and the guests next to us had enough energy to stomp around their room and open and slam every drawer/door in their room repeatedly all while whistling and listening to music. Finally at 3:30a.m. and after multiple attempts to phone the front desk, we dressed and went to the front desk. My husband and I pleaded our case, and the clerk said it would be handled. Satisfied, we headed back to our rooms where captain mcwhistle and his band of door slamming trolls continued to make noise. They finally gave it a rest and about the time we finally get off to sleep our noisy upstairs neighbors decided it was time to get up for breakfast.Everything would've been perfect if it weren't for the noise. Hands down would've made for 4 and a half or even 5 stars, but not being able to sleep because we could hear noise that was so loud it made our kitchen rattle...nope, honestly probably deserves one star.More</t>
   </si>
   <si>
+    <t>jetsetdave64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r429537361-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -596,6 +656,9 @@
     <t>Made a good decision to stay here for Dallas Comic-Con. Would have given 5 stars if it weren't for the unsupportive pillows.Pros:- situated in a modern, safe location (business district) with minimal traffic, and in close proximity to a shopping district with CVS, restaurants, and gas station- daily breakfast options actually better than majority of other chain hotels we've been to (I enjoyed tasty scrambled eggs and potatoes).- well-organized room- ample free parking- within 10 min drive of Irving Convention Center- reasonable price per night- full-sized kitchen- appears to have thick, sound-deadening walls as I could not hear neighbors or people walking outside in the hallwayCons:- unsupportive pillows, had some neck stiffness in the morningMore</t>
   </si>
   <si>
+    <t>Temi R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r422850071-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -620,6 +683,9 @@
     <t>There were 7 of us for a 3-day weekend.  The rooms are comfortable and suitably equipped for us to relax.  The full-size refrigerator and kitchen area easily accommodated our party needs.  We will probably stay there next time we're all in town together!More</t>
   </si>
   <si>
+    <t>Kirk M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r415165415-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -635,6 +701,9 @@
     <t xml:space="preserve">Fantastic experience. Very nice hotel, with a fantastic staff. The 2 bed room suite was perfect for our family. Super clean and in a very nice area. Had one tv that didn't work but it was fixed immediately. </t>
   </si>
   <si>
+    <t>Janette P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r405289161-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -653,6 +722,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Johnnydepp22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r404310428-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -668,6 +740,9 @@
     <t>you have to stay here! its the best hotel in the area!breakfast is good and the rooms are quiet and comfortable.the best part about this place is the staff...you can tell they love their job and its most likely because the supervisor heidi is so involved and caring.</t>
   </si>
   <si>
+    <t>BrettWagg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r401017997-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -686,6 +761,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Susan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r399392808-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -701,6 +779,9 @@
     <t>Nice hotel in a good central location in the Irving area of greater Dallas. The hotel was clean and comfortable with free parking, complimentary breakfast and wifi. Also, pets are welcome here, which is one of the primary reasons it was chosen for our overnight stay.</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r391567327-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -716,6 +797,9 @@
     <t>This is a excellent hotel. Very clean. Beautiful inside and out. Free parking. Free Wi-Fi. Free great breakfast. During the week they have a social time with free beer, wine, and food!! Awesome quiet location. Outdoor heated pool in a beautiful landscaped setting. Basketball court! Our room was a one bedroom. Flat screen t.v. in the living room and bedroom. Complete kitchen. We love this about Stay bridge. And last but not least are the employees. Top notch, professional, helpful. Whatever there doing here, its the right way! Great job here!</t>
   </si>
   <si>
+    <t>aag2326</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r382076618-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -731,6 +815,9 @@
     <t xml:space="preserve">Place is great! No complaints! The staff is so friendly and great to come back six months later and same staff at the hotel! When you walk in the hallways in smells so clean! The breakfast in the morning is laid out well and taste great! The pool was so relaxing! Just so excited to know your money was spent well when you stay at this place! </t>
   </si>
   <si>
+    <t>Cassie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r381377241-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -749,6 +836,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Richard C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r380970117-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -765,6 +855,9 @@
   </si>
   <si>
     <t>If you want to stay in a beautiful well maintained hotel in the Irving/Grapevine area this is the place. I was met by Heidi at check in. Great friendly and super nice. After a kind tough day her smiles made my day. She also upgrade me to a two bedroom suite without me requesting one. The room was awesome spacious and smelled great. She invited me to their happy hour between 530 to 7. I went to grab a beer and the shiner bock keg was empty ( plenty of bud light in the other keg,  but who cares when Shiner Bock is in the house). So sad but quickly realized the keg was empty by the staff and the sales manager said hold tight and he sent for bottles of shiner bock. Jeff Parks is the sales manager and knows how to treat his guest. Great customer service. Awesome free dinner of pork chop mash potatoes and mixed veggies with salad and desert. You can go wrong at this great hotel. Thanks a lot Staybridge suites Irving/ Las Colinas. Keep up the greT work. Spire elite member who stays in a 200 plus hotels nights a year. Great job IHG. More</t>
+  </si>
+  <si>
+    <t>James T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r369516322-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -793,6 +886,9 @@
 My wife suffers from asthma, and takes prescription drugs for the condition daily. We booked this property using a "secret" or "express" deal on one of the booking websites.  When we arrived at our room, we discovered it was a Smoking Room, which the front desk confirmed when I immediately called.  Our room was #304.  Besides being Smoking, it was also about the furthest possible room from the lobby and the least convenient. The hotel apologized, saying they were full and could not do anything about it.  At the time of check-in, there were MANY vacant parking places, so I am very confident other rooms were still unoccupied (though they...I will say that the property we visited was a nicely furnished motor inn.  The rooms are set up with a separate bedroom, with nearly a full kitchen and a nice sitting area.  The bed was comfortable.  We would have preferred to have more than two towels, but that was not a big problem. While not in "new" condition, most of the details were very nice.  The free breakfast was decent, and the facility offered nice extras such as apples and peppermints for guests. While we did not use it during our stay, the pool area was very nicely finished in a courtyard type area with awesome landscaping.  Check in was quick and efficient. They have a large sign by the front desk that states "This is a Non-Smoking property".My wife suffers from asthma, and takes prescription drugs for the condition daily. We booked this property using a "secret" or "express" deal on one of the booking websites.  When we arrived at our room, we discovered it was a Smoking Room, which the front desk confirmed when I immediately called.  Our room was #304.  Besides being Smoking, it was also about the furthest possible room from the lobby and the least convenient. The hotel apologized, saying they were full and could not do anything about it.  At the time of check-in, there were MANY vacant parking places, so I am very confident other rooms were still unoccupied (though they could have been booked and unassigned).  When I went down to the front desk, they presented Staybridge paperwork showing us as "Smoking Preferred".  They blamed this on Priceline, saying they hate Priceline because this sort of thing happens with these reservations so frequently.  I use this service all of the time, and have NEVER been shown as preferring "Smoking" before, so I highly doubt this is true.  While this property is really quite nice and offers a decent, quiet location with acceptable amenities, BEWARE because management lies.  They chose smoking for us, and kept the better rooms (location and non-smoking) for higher paying guests.  They had no concern for my wife's asthmatic condition, and made virtually no attempt to correct the problem. The property is definitely worthy of the 3*, and I would have normally given it a "4".  I just wish that management would have admitted they assigned us smoking for their own financial reasons.  I have filed a dispute with Priceline, and it is pending.More</t>
   </si>
   <si>
+    <t>dewmaniii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r364493604-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -817,6 +913,9 @@
     <t>Staff is very friendly. The rooms are very comfortable. The bed was a little harder than my liking but I still slept well. Great location. Free dinners serve real food, not snack items. Really enjoyed my stay. Weekends occasionally brought louder guests. However it wasn't a hindrance. More</t>
   </si>
   <si>
+    <t>Giacomo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r362757451-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -841,6 +940,9 @@
     <t>I was very pleased with my stay at Staybridge Suites in Dallas Las Colinas. I was warmly welcomed by the staff upon arrival and, given my Spire Elite Status, I was upgraded to a 2-bedroom suite with 2 bathrooms, although I was alone.Very young people at the hotel, nice and clean atmosphere.The only thing they should check is the furniture, The chairs in my room were stained and not properly clean and this was not expected.More</t>
   </si>
   <si>
+    <t>Margaret A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r353961988-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -868,6 +970,9 @@
     <t>Spacious, well decorated 2 bedroom suites. Convenient location, comfortable and safe atmosphere, excellent breakfast, awesome staff, and budget friendly! Make this a top choice! I highly recommend Staybridge!More</t>
   </si>
   <si>
+    <t>Megan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r349285141-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -895,6 +1000,9 @@
     <t>My husband and I stayed here while he was in town for training. The staff were extremely friendly and our room was clean. We have always been happy with Staybridge. The morning breakfast was fair, but definitely better than some. The front desk has hundreds of movies available for you to watch in your room which was really nice. Would definitely stay here again. More</t>
   </si>
   <si>
+    <t>Brighton9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r343553508-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1030,9 @@
     <t>The property has a large car park, location is close to restaurants etc. but not easy to get anywhere without a car.Reception is friendly and efficient, especially the lovely Renee.  Breakfast is basic but OK to get something before you leave.Rooms have a small kitchen (fridge, microwave, dishwasher, coffee maker) and lounge area, beds are Ok, plenty of storage space, two TVs with good range of channels.Handy and reliable shuttle bus will take you within about 5 miles.Overall I would say it rates about the same as Aloft but better than La Quinta.More</t>
   </si>
   <si>
+    <t>Josip G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r311304797-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1087,9 @@
     <t>Great place! Beautiful patio and so relaxing! The pool area was so nice and water looked clean! The area where the hotel is located is nice. No complaints here! I recommend to everyone! I will say that there was a floor dryer in the room but was not a bad thing because the carpet had been shampooed and smelled so clean when we entered. We left it in the hall and informed the front desk and they took care of it. What you see on the pictures of this hotel is really how it looks in person.More</t>
   </si>
   <si>
+    <t>Kirby J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r306493832-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1117,9 @@
     <t>Most of the Holiday Inn properties are in good shape and the staff is normally good.  But....this property is great and everybody associated with it was Wonderful.  the manager and assistant managers were present for every meal and they actually seemed to care.  The breakfast was a little different every day and always good.  they had a dinner every night we were there and it was all pretty darned good.    We asked to use the grills one night and they went out of their way to clean the grills, place spare propane by the grills and place everything we needed beside the grills.  This was truly an excellent experience.More</t>
   </si>
   <si>
+    <t>weyes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r287642825-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1028,6 +1145,9 @@
   </si>
   <si>
     <t>Another night in another Staybridge and this one did not disappoint. The front desk staff was friendly and were ready with my reservation. This Staybridge is a bigger one than some. My room was located a ways away from the elevator, which is fine for me as it was very quiet. Bed was comfortable, plenty of towels in the bathroom (nice thick ones...better than HI Express). I had a wifi password and it worked great.The breakfast was hot and ready when I cam down in the morning. They had scrambled eggs, meat, yogurt, bread and muffins for toast, coffee and juice. I didn't see hardboiled eggs, but I had plenty of options. This is nestled in business district, so there are some food places nearby. Dickie's BBQ was just a short drive away. I also saw a greek place and a Boston Market nearby.Would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>kandkwed</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r283952688-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -1061,6 +1181,9 @@
 We went out for dinner and came back with a voice mail waiting for us. It said that they checked out the coffee maker that we complained about and that it should be okay now. The problem was that we never complained about a coffee maker. This meant someone had come into our room while we were gone even though we had a do not disturb tag on our door. This also meant that someone came into...My family and I stayed here for one night on our move across the country. The location is pretty good, although you may have to pay a small toll (if they send you the toll fee in the mail - it is a cashless toll road) because it is right off of a turnpike (you might be able to find a way around the turnpike). Check in was okay, although the front desk clerk was not entirely sure about the pet fee because he actually worked at the nearby Candlewood and was covering a shift for Staybridge. He even had his Candlewood name tag still on. No big deal though because I was contacted later about the pet fee. We had a queen studio suite. It was a pretty good size, but the design of the room led to a very cramped bathroom. One of those deals where you can barely shut the door to the bathroom without already sitting on the toilet. We went out for dinner and came back with a voice mail waiting for us. It said that they checked out the coffee maker that we complained about and that it should be okay now. The problem was that we never complained about a coffee maker. This meant someone had come into our room while we were gone even though we had a do not disturb tag on our door. This also meant that someone came into our room with our cat in the room and our cat could have somehow found its way out of our room if they had left the door open. We wanted to get an early start on our trip the next morning and went down for the start of breakfast at 7:00 AM on Saturday morning. Problem was is that they were not ready for breakfast. Two other individuals were also waiting to eat breakfast and one of them actually asked the lady running the breakfast for utensils so that she could get her breakfast. The breakfast started about 10 minutes later, which really wasn't a big deal, but you need to start on time if you indicate breakfast starts at a certain time. This is especially true for guests who have appointments or want to get an early start (like us).Other than the above, it was a good hotel. However, they are things that can be improved upon at this location.More</t>
   </si>
   <si>
+    <t>Tia K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r278479902-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1085,6 +1208,9 @@
     <t>My family and I stayed here last month and it was awesome!  The room was spacious, reasonably priced, and clean.  The staff was very friendly and provided great service.The location was ideal because we were mintues from great scenery and restaurants.  More</t>
   </si>
   <si>
+    <t>tandbi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r274432608-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1238,9 @@
     <t>We traveled to Dallas area for a family weekend. Unfortunately our plans were completely rained out. But we were very happy with our stay at the hotel. We stayed in a two bedroom suite. It was very comfortable. Had lots of room for the kids, seperate bathrooms, kitchen and living area. Our rate was $130 ish a night and that included our pet fee. The hotel allows dogs for minimal fee. They ask you crate them while gone so housekeeping can clean daily. Which is understandable to keep the pet hair down. Our extremely well behaved 50lb dog isn't welcome at most hotels because of her size. It's nice to find a hotel that isn't prejudice against my dogs size. I guarantee she's better to have in a hotel than many small dogs. The breakfast was good. Each morning there was a slightly different choice. Eggs, waffles, sausage, cereals, fruit, yogurt, bagels, so on. Staff was very friendly. The hotel was clean. There was a pool and basketball area but we did not use them due to weather. My only complaint was the walls were thin. We could hear our neighbors and we're kept up until 1130pm from the very loud people playing basketball and shouting outside. A little bit of a drive to many DFW attractions but I think well worth the $ and drive for the comfort space and savings.More</t>
   </si>
   <si>
+    <t>Tripwarriors_com</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r271877262-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1265,9 @@
     <t>Nice greeting by warm and friendly staff. The room was very nice - made me feel more like an apartment rather than a hotel. Breakfast had lots of options, was clean and bright place to start the day. Overall I had a great stay.More</t>
   </si>
   <si>
+    <t>yukontuna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r268195662-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1292,9 @@
     <t>Very well appointed room not great wifi but acceptable . Then continental breakfast was good with many choices ,then they have snacks and beer free from Tuesday -Thursday .Laundry is free just pay for soap ,But the pool area was the best complete with a basketball court .Would stay hear again great location;More</t>
   </si>
   <si>
+    <t>cuinthemoon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r261978128-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1187,6 +1322,9 @@
     <t>Rented a 2 room suite, was nice and clean. Had no problems. Was quiet. Very nice options for breakfast. Pool looked wonderful but too cold yet to use. Easy to get to dallas and the airport. They do not have housekeeping over the weekends but that was not a problem. Would stay again.More</t>
   </si>
   <si>
+    <t>ratrodreid36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r261080007-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1349,9 @@
     <t>The price isn't bad.  It's like having your own little apartment on the road.  Breakfast isn't bad and on certain nights they have a beer tap " free".  Beds are good and rooms are pretty private.  Has Heated pool.  Really nice and super clean and the staff is great. More</t>
   </si>
   <si>
+    <t>Ted H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r258292636-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1376,9 @@
     <t>I like the eminities of the Staybridge brand but this location only gave us housekeeping service one day and it was so late we only asked for towels. If I come back to Dallas I'll not use this one byt try another and see uf they have fallen down in service from what I've grown a custom to.More</t>
   </si>
   <si>
+    <t>Madalena S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r255513379-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1406,9 @@
     <t>The room is beautiful and comfortable. Front desk was very friendly. The breakfast was delicious. After my flight was cancelled due to snowstorm to return to Boston  it was very stressful dialing with the flight reschedule, but after i got to the room and lay down on the one of the most comfortable bed I've ever lay down i slept like a baby.More</t>
   </si>
   <si>
+    <t>Paco P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r251483064-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1289,6 +1436,9 @@
     <t>Nice hotel, clean, spacious rooms and newly renovated.  Normal accomodations include full size refrigerator, HD TV and a small sitting area.  Hot and Cold items available for breakfast and a pm social hour (beer, wine, themed food) are well, and often, stocked.  The calendars for the themed food is usually posted on the refirgerator.  Unfortunetly no shuttle to DFW airport, however shuttle can transport you anywhere within a 5 mile radius of the hotel.  CVS is two blocks away as are a variety of fast food places (Wendy's, Jack in the Box and Chick-Fil-A).  A few sit down restaurants are accross the street (Thai, Italaian food).  Pleasant walk, unless you visit in the summer.More</t>
   </si>
   <si>
+    <t>Lag N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r250038553-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +1463,9 @@
     <t>So I usually stay at a different hotel in the Iriving/Las Colinas area, but my company's travel team booked this one for this trip so I gave it a try.  I have actually stayed at the Staybridge DFW which is actually closer to where I would spend my week, it's a nicer/newer hotel but the per day price is beyond what our company allows.  Anyway, first impressions were good.  The hotel is off MacArthur which is a busy street in Irving with literally dozens of shops and restaurants up and down it so the location was great.  It was easy to hop in the car and grab some food.  The hotel itself, I believe, was fairly recently renovated and you can certainly tell that.  The main common areas are pretty nicely well appointed, the staff is very friendly and helpful.  My room, however, was just ok. Nothing inherently or overwhelming wrong, it was clean, but was it was clear to me that the renovations were tactical, not all-encompassing.  The bathroom door would not close, the microwave in the kitchenette felt like it would fall down and some of the furniture had seen better days.  Having a full sized refrigerator and dishwasher were big plusses for my long stay.  The free breakfasts in the morning were pretty good, I was pleasantly surprised, they had your usual array of cereals, pastries, breads, etc, but also scrambled eggs and bacon which was nice....So I usually stay at a different hotel in the Iriving/Las Colinas area, but my company's travel team booked this one for this trip so I gave it a try.  I have actually stayed at the Staybridge DFW which is actually closer to where I would spend my week, it's a nicer/newer hotel but the per day price is beyond what our company allows.  Anyway, first impressions were good.  The hotel is off MacArthur which is a busy street in Irving with literally dozens of shops and restaurants up and down it so the location was great.  It was easy to hop in the car and grab some food.  The hotel itself, I believe, was fairly recently renovated and you can certainly tell that.  The main common areas are pretty nicely well appointed, the staff is very friendly and helpful.  My room, however, was just ok. Nothing inherently or overwhelming wrong, it was clean, but was it was clear to me that the renovations were tactical, not all-encompassing.  The bathroom door would not close, the microwave in the kitchenette felt like it would fall down and some of the furniture had seen better days.  Having a full sized refrigerator and dishwasher were big plusses for my long stay.  The free breakfasts in the morning were pretty good, I was pleasantly surprised, they had your usual array of cereals, pastries, breads, etc, but also scrambled eggs and bacon which was nice.  Coffee was good too.  My biggest annoyance, which is admittedly minor was the TV.  It wasn't the biggest -- maybe 28", took forever to "warm up" when you turned it on and the channel card in the room was completely wrong. I arrived on Sunday and could not find the NFL game because the NBC channel was either missing or mislabeled on the card.  I hate hunting and pecking for channels.  Rooms are not quiet -- no hotel really is -- but could easily hear every word of my neighbors conversations, even their loud cursing.  Overall, not a bad stay. I'm not sure I'd actively seek out this hotel, but if my company books me here again, I'm not going to mind.More</t>
   </si>
   <si>
+    <t>Joe Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r240911650-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1493,9 @@
     <t>This is such an amazing hotel with great staff! They understand customer service and organization. They are there with assistance and breakfast is great. Social hour is something not to be missed! The management treat you as you are a friend and not just a guest. Every time the Wienermobile comes to Dallas it stays at this hotel and it is a great thing to see. They travel the country and enjoy extended stays! So if you are even in the Dallas area you may possibly see it and the Hotdogger will definitely show you the inside! Also, free popcorn!!!More</t>
   </si>
   <si>
+    <t>Ellen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r237342742-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1367,6 +1523,9 @@
     <t>Warm, welcoming and wonderful!  The staff at the front desk, the cleaning staff and those that prepare the breakfast and "social" dinner are top notch!!!  Stayed for 2 weeks and would highly recommend anyone staying in the area to stay here.  The only negative is there really isn't anyplace worth walking to!More</t>
   </si>
   <si>
+    <t>Jmeredith28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r236926452-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1394,6 +1553,9 @@
     <t>I have twin infant boys and we were meeting my husband for the weekend in Irving and stayed here. We booked a king queen 2 room suite. Very nice for 3 adults and 2 infants. Great space and nice bathrooms. Loved how each room had private bath and like how the living room/ kitchen separated the two rooms. Comfy beds and great breakfast! More</t>
   </si>
   <si>
+    <t>Ronaldo S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r232222276-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1421,6 +1583,9 @@
     <t>First of all, the service and all the staff were undeniably amazing. Great hosts!The hotel has a sweet rustic look and the rooms are really cozy. The pool, the garden and the outdoor grill are great places to relax or have fun.Strongly recommend this.More</t>
   </si>
   <si>
+    <t>Andre G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r231769488-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1610,9 @@
     <t>We were there on a working trip for a long stay - roughly 2 months. The staff was amazing and everything was accordingly. Breakfast was served everyday and had everything you needed. The general reception of the staff was extremely warm and always tried to attend their guests needs. The outside area was also very interesting and refreshing. Try it yourself.More</t>
   </si>
   <si>
+    <t>Nuno L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r231768659-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1463,6 +1631,9 @@
     <t>Very attentive staff, nice pool, nice bed, nice basketball field.Went for business trip and could relax after work in the pool.Staff does a good job overall, and the front desk guys are really nice.More</t>
   </si>
   <si>
+    <t>Chrystal915</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r230014583-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1658,9 @@
     <t>I was here on business for two weeks. I had a few hiccups but the staff acted accordingly and always went above and beyond. Rooms are very clean and spacious. The breakfast offered is great for being complimentary. They offer dinner Tuesday-Friday with complimentary wine &amp; beer. Who could want more? Very pleased with my experience and will be returning in a week.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r229301974-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +1685,9 @@
     <t>Chose this hotel based on its reviews and the closeness to airport that allowed me the ability to pick spouse up when he returned from his business trip.  Staff was exceptionally friendly and hotel was very clean.  I mistakenly chose the wrong room type on our reservation and the staff was quick to find me a non-smoking room which also included a wonderful upgrade.  Enjoyed my stay and the hotel is well within anything you might want to eat or shop at.  Very clean and beds were awesome.  A/C worked great too which is a very important amenity for us. My husband travels quite a bit and this will be a go to hotel when I want to stay in Dallas and shop.More</t>
   </si>
   <si>
+    <t>Sandersgroup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r226418245-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1712,9 @@
     <t>Great suite for five in multi-generational family to spend grandson's 16th birthday. Enjoyed the mid-week evening meals and the morning breakfast plus workout room and pool and was convenient for our other ventures. Clean and friendly.More</t>
   </si>
   <si>
+    <t>OklahomaProfessor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r208904143-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1742,9 @@
     <t>This was our first time to stay at a Staybridge property though we have stayed at other IHG properties (Intercontinental, Holiday Inn, Crown Plaza, etc).  We selected this location because my wife was attending a conference nearby and also because it was a pet friendly hotel.  The location was ideal for us.  It was a short driving distance from the Irving Convention Center where my wife was attending a conference.  There were also a number of restaurants (Indian-Saregama, Greek, Italian and many fast food restaurants-Subway, McDonalds) within walking distance and many more just a short drive away.  There was also a park nearby, which our dog enjoyed.  Another reason we chose this property was because an ad we saw claimed that the property was recently "renovated."  This proved to be only partially true.  The kitchen in each suite was redone and I must admit they had a done a great job on remodeling the kitchen area.  However, not much else appears to have been renovated.  The couch was "original": sagging, stained, fraying cushions at the seams...had seen better days and was uncomfortable to sit on.  Most of the rest of the furniture appeared old as well.  The bed itself was good though I thought it was strange to see such small pillows.  Usually hotels tend to have king size pillows, this one had such small ones that  were barely enough to rest your head on.  The AC was also noisy....This was our first time to stay at a Staybridge property though we have stayed at other IHG properties (Intercontinental, Holiday Inn, Crown Plaza, etc).  We selected this location because my wife was attending a conference nearby and also because it was a pet friendly hotel.  The location was ideal for us.  It was a short driving distance from the Irving Convention Center where my wife was attending a conference.  There were also a number of restaurants (Indian-Saregama, Greek, Italian and many fast food restaurants-Subway, McDonalds) within walking distance and many more just a short drive away.  There was also a park nearby, which our dog enjoyed.  Another reason we chose this property was because an ad we saw claimed that the property was recently "renovated."  This proved to be only partially true.  The kitchen in each suite was redone and I must admit they had a done a great job on remodeling the kitchen area.  However, not much else appears to have been renovated.  The couch was "original": sagging, stained, fraying cushions at the seams...had seen better days and was uncomfortable to sit on.  Most of the rest of the furniture appeared old as well.  The bed itself was good though I thought it was strange to see such small pillows.  Usually hotels tend to have king size pillows, this one had such small ones that  were barely enough to rest your head on.  The AC was also noisy.  I am guessing the AC units were not replaced during the "renovation." The free breakfast was pretty good though I found the kitchen staff to be indifferent.  The front desk staff though were very good and pleasant.More</t>
   </si>
   <si>
+    <t>Ken C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r200212004-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1589,6 +1772,9 @@
     <t>What a great hotel!!!  My first time EVER staying at a StayBridge Suites.  It was beyond my expectations.  Mindy was awesome.  The GM and front desk staff did anything you needed.  Rooms are spacious and very comfortable.  I'm glad I will be staying there again soon. So many resturant choices.  Also shuttle to the airport if needed!!!More</t>
   </si>
   <si>
+    <t>Kevin Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r196694558-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1799,9 @@
     <t>I stayed here for three nights when I had to attend training with my company in Irving, TX. My room was clean and contained a small kitchen area with a fridge and a sink. My room also contained a desk area and a TV on a dresser. The hotel has free wi fi which is great. In the mornings, they put out free breakfast that included hot food, bagels, muffins, fruit, and cereal; it was a nice spread. They have a happy hour three days a week but not on Mondays. There really isn't much around the hotel within walking distance so it is a little boring at night. There is no hotel bar which is surprising.More</t>
   </si>
   <si>
+    <t>Bret H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r178484949-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1818,9 @@
   </si>
   <si>
     <t>September 2013</t>
+  </si>
+  <si>
+    <t>cacsmom</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r175980760-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -1664,6 +1856,9 @@
 Internet was very slow, and incredibly spotty. (I actually would have to walk around the room holding my laptop just trying to GET a signal. As soon as I could get on, it would drop. Several days I had no service at all.)  Internet service in the business center is also...This is a very nice property, well-kept, for the most part very well staffed.  There is plenty of minor shopping in the near area (Target, ToysRUs, drug stores, and various smaller stores...) bigger malls with major department stores being further away from the hotel. The shuttle service offered by the hotel is great.Rooms are nice and the property is well kept, although a major negative is the smoke billowing into your room (ours was a non-smoking room that smelled like we were in the middle of an ashtray).  This is designated as a non-smoking hotel (stated on the wall at check-in, and by elevators).  However, they DO have smoking rooms,  how many of them fluctuates according to guests requesting it-it's up to the management if they will change a non-smoking into a smoking room.  But smoke has a way of saturating furniture,  carpet, and drapes...A lot of smokers at this property...  Could hear congregations of noisy neighbors frequently as they would meet in the halls.The one elevator, used by staff and guests, is antiquated and often jerks to a stop, is out of serviced, or being serviced.  Internet was very slow, and incredibly spotty. (I actually would have to walk around the room holding my laptop just trying to GET a signal. As soon as I could get on, it would drop. Several days I had no service at all.)  Internet service in the business center is also very slow, and several times unavailable there too.They do offer a variety of board games like Battleship, Clue, Monopoly, Scrabble ...for you to use.  That's nice.Meals offered were good, but better to eat in your room, or outside if you want it a little more quiet.  The outside offers a nice  shaded back area, sport court, pool, and grilling areas with nice outdoor furniture. Tree-covered and quiet.  You could definitely have peace and quiet back there, or a nice time by the pool. They are each separated by trees, shrubs and fencing so not to infringe on the other.  Some hotels aren't very child-friendly. Children are easily welcomed here. Would stay here again.More</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r175105190-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1682,6 +1877,9 @@
     <t>After a fun game at The Rangers Ball Park, we located this motel on Tripadvisor.  The price was very reasonable, breakfast good, clean large rooms, pool outside, the service was excellent... What was different?... The motel is u-shaped and there is a pool, basket ball court, and sitting area.  These areas are secluded from outside traffic offering privacy which is nice.  The outsude sitting area is superb. There are individual sitting areas with just enough shrubbery to offer some privacy.  There are BBQ grills, and a small fire pit.   The designers have performed well at this location. We will definitely be back.  More</t>
   </si>
   <si>
+    <t>JesseWilliams1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r166850632-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +1895,9 @@
     <t xml:space="preserve">Great hotel. Monique at the front desk was helpful in changing reservation. Great breakfast. Happy hour was good too.  Truly an enjoyable experience. Thanks again for good clean hotel decent location with great service. </t>
   </si>
   <si>
+    <t>Stephen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r155902486-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1715,6 +1916,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Migel N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r150881913-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1742,6 +1946,9 @@
     <t>Stayed here for 12 nights during travel for business in Dallas. Friendly staff and perfect for an extended stay. Although I had the option to use per diem for dining, the daily free breakfast and dinner options (a few nights/wk) was actually pretty decent and convenient if I didn't feel like eating out...esp breakfast. The location is great, quiet and close to a lot of dining options and just about anything else that you will need for an extended stay. Easy access to expressways also. They were in the process of renovating the kitchen area of suites 3 days into my stay, so construction noise was somewhat of a nuisance...also the water was turned off from 11a-3pm, which was inconvenient. Despite these issues, I was able to look past them and rate the hotel based on its benefits. After all, upgrading should not be penalized. Would recommend and definitely stay here anytime I'm back in Dallas. Oh almost forgot! They have free laundry machines that are of very good quality  including front load washers.More</t>
   </si>
   <si>
+    <t>James L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r147647020-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1760,6 +1967,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>ItsJCB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r146826487-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1778,6 +1988,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>dbe001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r146569053-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2006,9 @@
     <t>I've stayed at the Staybridge Suites for almost 180  days over a  year and a half period starting in early 2011.  I have always felt welcome and cared for. The staff have always been top-notch and not many staff changes in that time either, which says something for the Management to keep the employees happy as as well as the Guests...  Already booked another stay coming up soon.</t>
   </si>
   <si>
+    <t>Redrose3704</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r141287690-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1808,6 +2024,9 @@
     <t>We have been here a month and have thoroughly enjoyed it. We had some special needs and they went out of their way to meet and exceed our needs. Their staff is extremely friendly and outgoing yet always courteous and professional. The manager can usually be found visiting with the guests at break fast, clearing plates from the tables and wishing everyone a good day. The front desk employees always greet you on your way in and tell you to have a good day or evening.  I will come back again and would recommend everyone stay here!</t>
   </si>
   <si>
+    <t>Elmer H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r141081348-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1826,6 +2045,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>rocketman217</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r140801957-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1841,6 +2063,9 @@
     <t>This hotel was excellent. I travel for business most weeks and this was the most pleasant experience I have had at a hotel in years. From the breakfast staff right through to the maintenance crew the service was exceptional. The front desk crew had great recommendations for the local area. Chris and Shetal at the front desk were always more than helpful. I will definitely be back.</t>
   </si>
   <si>
+    <t>Laurie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r138664165-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1863,6 +2088,9 @@
   </si>
   <si>
     <t>I stayed for two nights here in a suite and was very, very disappointed!! We went to visit my brother in Irving and did not want to stay in another town so we could spend more time with our nieces and brother. to begin with our room was right next to the elevator and it was noisy, we didn't sleep very good because of it. The room was very very small for a "suite"! The pull-out "mattress" was thinner than a flat pancake! Not comfortable at all! The sheets on the queen bed had pen or marker stained on them. Why would they just not throw them away if it didn't come off when they washed them. Or maybe they were not clean sheets to begin with! The website states complimentary drinks daily and dinner snacks as well, but when we went downstairs to get a drink the kitchen was closed because it was after 10:30am....what? When I talked to the manager on duty at that time he said he would unlock it for us but one of the staff members said the kitchen help had just unlocked it so when I went back to  the kitchen the help  (spanish speaking lady who couldn't speak English well enough to understand) told me "oh no, iz' closed". I said the manager just told me he was goning to unlock it for us to get a drink, she insisted "iz' closed!" I...I stayed for two nights here in a suite and was very, very disappointed!! We went to visit my brother in Irving and did not want to stay in another town so we could spend more time with our nieces and brother. to begin with our room was right next to the elevator and it was noisy, we didn't sleep very good because of it. The room was very very small for a "suite"! The pull-out "mattress" was thinner than a flat pancake! Not comfortable at all! The sheets on the queen bed had pen or marker stained on them. Why would they just not throw them away if it didn't come off when they washed them. Or maybe they were not clean sheets to begin with! The website states complimentary drinks daily and dinner snacks as well, but when we went downstairs to get a drink the kitchen was closed because it was after 10:30am....what? When I talked to the manager on duty at that time he said he would unlock it for us but one of the staff members said the kitchen help had just unlocked it so when I went back to  the kitchen the help  (spanish speaking lady who couldn't speak English well enough to understand) told me "oh no, iz' closed". I said the manager just told me he was goning to unlock it for us to get a drink, she insisted "iz' closed!" I wish i could have seen her name tag but I couldn't. She was on duty on Saturday Aug. 25, 2012 in the am. Then there was only 1 roll of toilet tissue in the room when we checked in and we had to call up for towels! How ridiculous is that??? For what they charge a night, come on! Oh but wait, I'm not done yet. Late at night around 10pm we decided to sit out on the patio and have a couple of drinks and needed a bucket of ice. I did not once see an ice machine or even vending machines. It would have been nice since we had nieces visiting us. They wanted snacks that were affordable and not have to buy them from the sweet shop at the front desk and over pay. Anyway, the staff member on duty at 10pm on Saturday Aug. 25, 2012 was named Pam W. She was rude when I asked her for a bucket or pitcher of ice. She said to me "what do you need ice for?" I said "uh, I'd like some ice is all". She then looked at me like I was bothering her and then asked me what was my room number? I told her my room number and asked what for and she then preceded to tell me "well I can take you some ice to your room I guess". I then told her, no I asked for ice for our drinks because we were sitting out in the patio, that's what I said to you to begin with, why would you take it to my room? She then gave me an attitude and then got a pitcher of ice and said "here." Really??? This is hospitality?? I've stayed at Holiday Inn in Altus, Ok and have been treated like royalty there that I assumed this being one of their hotels too we would be treated the same but sadly we were not! Their continental breakfast was nothing to brag about either. Please think twice when looking to stay at this hotel. One positive is that my brother left one of his shirts in the room when we checked out on Sunday Aug. 26, 2012 and didn't realize it until monday morning so I called the hotel and spoke with a Montavious, (not sure if i spelled it right) but he was the front desk manager on duty on Monday morning, Aug. 27, 2012 and said he would talk to his head in housekeeping and get back with me either way and he did. He called me back and told me the shirt had been found and he asked me how I would like to get it returned and I told him that my brother would be by to pick it up that afternoon. He was very courteous over the phone. I wished we had had that type of hospitality when we were physically there!More</t>
+  </si>
+  <si>
+    <t>Jedadiah W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r136704275-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -1887,6 +2115,9 @@
 The room was ... disappointing. The furniture and fixtures were all good. The separate bedroom was great traveling with kids. The sleeper sofa mattress was heavily stained and had springs poking out of the sides which likely ripped the provided sheets. The hotel obviously has foundation problems (common to almost all buildings in the area) and our walls were badly patched and painted with texture and color not quite matching what was there before and new cracks throughout. The bathroom door was too large for the space (appeared to be a wheelchair accessible door on the 3rd floor room with no handicapped features) resulting in difficulty closing or opening if at the toilet. The fridge and freezer were adjusted to the coldest settings but never really got that cold (ice cream stayed melted in freezer). The room was very clean though and daily housekeeping service is nice. The...The service at this hotel is fantastic. The staff was very friendly and responsive. The hotel accepts pets which was a must and many people had their dogs with them as we did. Even so the noise level was low and I never heard any barking apart from my own dog. Breakfast was better than expected with a wide selection of cereals, yogurt, TX shaped waffles, fresh fruit, juices, coffee, tea, scrambled eggs and a different other hot item daily (bacon, sausage, pancakes, biscuits and gravy all served while we were there).The room was ... disappointing. The furniture and fixtures were all good. The separate bedroom was great traveling with kids. The sleeper sofa mattress was heavily stained and had springs poking out of the sides which likely ripped the provided sheets. The hotel obviously has foundation problems (common to almost all buildings in the area) and our walls were badly patched and painted with texture and color not quite matching what was there before and new cracks throughout. The bathroom door was too large for the space (appeared to be a wheelchair accessible door on the 3rd floor room with no handicapped features) resulting in difficulty closing or opening if at the toilet. The fridge and freezer were adjusted to the coldest settings but never really got that cold (ice cream stayed melted in freezer). The room was very clean though and daily housekeeping service is nice. The bed is firm, which was great for my back, I have not slept that well in years.Overall I would be willing to stay here again and likely check it out in other places we may travel.More</t>
   </si>
   <si>
+    <t>Cobice85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r136190920-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1902,6 +2133,9 @@
     <t>Me and my husband had a great time here. Our dogs were allowed and the pet fees were not outrageous like other hotels. We had a fun day today between the pool, corn hole, and basket ball which they supply! And they supply a free dinner 3 times a week with free beer and wine!! Doesn't get much better than that! And very clean. Some one said something about everything being out dated here but they are redoing a lot so I did not get that impression.</t>
   </si>
   <si>
+    <t>Clinton_ILCruiser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r131924510-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1923,6 +2157,9 @@
     <t>My second stay at this hotel.  Would not hesitate to stay a 3rd time.  Hotel is great.  Nice hot breakfast in the morning.  In the evenings a nice "Happy Hour" with beer and wine selections.  Rooms are very spacious with a setting area, work desk, seperate bath room, full kitchen with refrigerator, stove, dish washer and sink.  My room was serviced well each day during my stay.  Bed very comfortable, and the hotel is very quiet at night.  Close to the airport and very convinient to shopping and restaurants.  Very good value for the money!!! I didn't use it, but the pool and hot tub area look to me very nice.  I did use the hotel shuttle service for a ride from the airport and they arrive promptly for pickup.  Without a doubt, I would stay again.  Very pleased!!!!!!More</t>
   </si>
   <si>
+    <t>David C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r131771906-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1941,6 +2178,9 @@
     <t>We stayed here two years ago and enjoyed it, so naturally we came back to try it again.  Once again, we were not disappointed.  The staff was friendly, the hotel was clean and quiet, and the location was convenient and centrally located to several activities we had planned throughout the DFW area during our stay.  The two bedroom suite gives everyone in our family plenty of room to spread out, the full kitchen makes it great to stock up on snacks, and with three TVs, there's no fighting over the remote!  The full hot breakfast is just icing on the cake; it makes it a whole lot easier (and less expensive) than having to get everyone ready to go to a restaurant to get breakfast....just walk on down in your PJs and get your fill, or fill up your plate and take it back to your room!  My family loves it!  Anytime we go anywhere, we make it a point to try and find a Staybride Suites facility to stay at.  They are definitely at the top of our list for our vacation stays!  Keep up the good work!More</t>
   </si>
   <si>
+    <t>Kevinwallerphoto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r131257577-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1956,6 +2196,9 @@
     <t>Nice hotel, friendly staff and they are in the process of renovating. Good location close it highway access and eateries. The evening social is decent and serves its purpose, but nothing to write home about.The only negative was right before I left. The cleaning attendant was not on their A game that day. The towels had stains, and the room was not wiped down. Overall, the hotel is nice. Flat screen, really nice patio, pool and grill area. Its on my repeat liat if I  ever in the area again.</t>
   </si>
   <si>
+    <t>Erchie01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r124017200-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1974,6 +2217,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>clane20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r121891316-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -1992,6 +2238,9 @@
     <t>This was my first stay in a suite type property. We had 3 rooms, two of which were 1 bedroom, 1 bathroom with a separate living room and a kitchenette attached to that living area. There was a full size refrigerator, microwave, toaster, coffee maker, dishes ,etc.. One of the rooms had 2 complete bedrooms, and was extremely spacious.The entire property was very clean, the bed was comfortable with a choice of varying pillow types. The property is off of the freeway, so noise is not a problem. The only reason I would not give this property 4 stars is that it is somewhat outdated in its furnishings and finishes.(ex.- outdated laminate on counter tops) If that's not a problem this is an excellent place.The free breakfast had a good assortment of cold and hot food. I would stay here again.More</t>
   </si>
   <si>
+    <t>Traveler216_fl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r119137731-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -2010,6 +2259,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>sagitopaz24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r99944528-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -2031,6 +2283,9 @@
     <t>I made the horrible mistake of going with another hotel for my 9 week stay initially. when i went to that hotel and was NOT HAPPY WITH IT, i googled nearby hotels for long term stays and called Staybridge. They had immediate availability for my 9 weeks and gave me a great rate. BEAUTIFUL BEAUTIFUL room!!! VERY VERY Clean and wonderful staff. they let me see the room before paying and i was sold right away. free shuttle, free laundry, free wiifi, good cable channels and beautiful lobby/lounge and outside area. GO TO THIS HOTEL. please dont make the mistake i did and go for cheap near the airport. the Las Colinas area is also very nice with LOTS of places to eat and shop (walmart, target, kohls, Kroger etc)More</t>
   </si>
   <si>
+    <t>JonathanLehr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r95450690-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -2050,6 +2305,9 @@
   </si>
   <si>
     <t>Fire alarm went off in the middle of the night twice in three days, second time for HALF AN HOUR. First one was due to a power outage (evacuate the hotel because the power's down?). Two days later, we had a second fire alarm, at 2:30 AM, due to a broken water pipe. Sorry, that's NOT a fire, so what's up with the HALF HOUR OF EAR-SPLITTING NOISE forcing people out into a snowstorm?In between, there were nasty problems with internet infrastructure that severely hampered business communications, as well as work I was doing on presentations for customers. Hotel management and staff were pleasant and helpful, and did their best to help resolve problems, but sheesh!The only reason I booked this hotel was that I had to be in the area on business just prior to the Super Bowl, so hotel rooms were scarce. I'll be avoiding Staybridge Suites in future.More</t>
+  </si>
+  <si>
+    <t>Razorfish</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r92886848-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -2079,6 +2337,9 @@
 I had no problems with the use of the wi-fi in the room.  I did not have a printer with my laptop so I used the...My wife and I and our daughter and son-in-law went to the Southwest Classic between the Arkansas Razorbacks and Texas A&amp;M Aggies and the Cowboys-Titans game the next day this past October.  I reserved rooms at the Staybridge Suites in Las Colinas because of the good rate,  the restaurants in the area and the convenience to Cowboys stadium.  Although the location is good, we had a difficult time finding it upon our arrival into Irving.  Even coming back from the Hog game we missed the turn.  But getting to and from the games were a breeze because we used the Bush toll road which had just been opened and few people knew about it or used it the weekend we were there.  The rooms were comfortable and spacious like all one bedroom suites at Staybridge Suites.  We were located in a room on the second floor adjacent to and above the lobby.  There were a lot of Tennessee Titan fans at the hotel and they filled the lobby when when we came in from dinner.  We were afraid that the noise would continue and prevent us from sleeping, but they dispersed soon after we got back and we didn't have any difficulty sleeping.  The next morning I enjoyed the selections available for their breakfast. I had no problems with the use of the wi-fi in the room.  I did not have a printer with my laptop so I used the business center to print off tickets to the Texas Rangers American League Division Series game on that Sunday.  We were able to take in the Rangers game starting at noon and then go next door to the Cowboys game that started at 3:15.  It was quite a sporting weekend with the college football game Saturday and the MLB playoff game and NFL game on Sunday.More</t>
   </si>
   <si>
+    <t>Louisiana_Man_88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r48851479-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -2100,6 +2361,9 @@
     <t>This hotel is great! Well, we arrived about 3 PM and checked in.  (The front desk lady was very nice)  We then ventured to our 1 bedroom suite. Our room was down a few hallways.(a very big hotel) Anyway, our room had a bedroom with a king bed and an ACTUAL closet, a living room with sofa and desk.  A kitchen with a full size fridge and ice maker, mini stove top, dish washer, silverware,pots, and such were provided.  Our room was wonderful... they have a courtyard with a salt water pool, and a sports court as well as a grilling area...  breakfast was delicious and free.. it consisted of bacon or sausage, toast or hashbrown, fruit salad, waffle maker, pasties, cereal, boiled eggs, fountain cokes, juices, and milk... a library, business center, fitness center, and convenient store all on site... really nice people here... great hotel..More</t>
   </si>
   <si>
+    <t>AdsMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r20266714-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
   </si>
   <si>
@@ -2119,6 +2383,9 @@
   </si>
   <si>
     <t>The service here was exceptional - five star service at a three star price. The staff were all very helpful with any requests I had. As a tourist, the location was not ideal, as you need a car to get around, but as I was there for business, their free shuttle bus (free to within a 5 mile radius) was great. I felt safe walking on the streets to the local restaurants, but a car was really needed.July/August is a very hot time of year - every day reached over 37C/100F (and I was there for 18 nights), but the pool and outdoor area was great. There was an undercover BBQ area which was available to be used any time. On Tuesdays-Thursdays, there was a happy-hour type setup which offered free unlimited beer, wine, soft drink and nibbles. Plus the daily breakfast also offered sufficient variety.The room (323) was a one bedroom apartment which was very spacious and offered the usual comforts. The room was in great condition and very clean.PS If you're a keen shopper, don't miss the Allen Premium outlets in Allen (about 40min drive - $80 one way cab fare) or the Galleria (near down town) which was a 15 minute drive.More</t>
+  </si>
+  <si>
+    <t>oldensign</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r10011976-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -2144,6 +2411,9 @@
     <t>My first Staybridge experience and I loved the chain. 
 However this week was probably a bad one for this hotel. As the other reviewer noted the kids romped all over the hotel. They dominated the breakfast and dinner buffets and left trash everywhere. Basically they total overwhelmed the hotel staff. The staff tried their best but they are used to dealing with b- travelers not middle schoolers and could not keep up. I had a nice room on the inner court yard. However the kids stayed out in the pool and the sports court making noise past ten every night. I cant believe they did well in their baseball tournament.  The parents spent most of their time outside  in the nice gazebo drinking from what I could see and from what I stepped over in the  next morning. This was not a reflection on the hotel more a reflection on poor guest etiquette!  I liked the hotel even in spite of the raging youngsters. 
 The hotel is itself is very nice. The rooms are spacious. The furnishing are excellent. The windows open which is a plus with me ( when kids are not out). I found the rooms very clean and serviceable. As noted before there is a nightly buffet where they served real food (grilled chicken, pasta, beer….). Breakfast Buffet was outstanding as well - just go early to beat the rush.  The hotel has a gym, pool and...My first Staybridge experience and I loved the chain. However this week was probably a bad one for this hotel. As the other reviewer noted the kids romped all over the hotel. They dominated the breakfast and dinner buffets and left trash everywhere. Basically they total overwhelmed the hotel staff. The staff tried their best but they are used to dealing with b- travelers not middle schoolers and could not keep up. I had a nice room on the inner court yard. However the kids stayed out in the pool and the sports court making noise past ten every night. I cant believe they did well in their baseball tournament.  The parents spent most of their time outside  in the nice gazebo drinking from what I could see and from what I stepped over in the  next morning. This was not a reflection on the hotel more a reflection on poor guest etiquette!  I liked the hotel even in spite of the raging youngsters. The hotel is itself is very nice. The rooms are spacious. The furnishing are excellent. The windows open which is a plus with me ( when kids are not out). I found the rooms very clean and serviceable. As noted before there is a nightly buffet where they served real food (grilled chicken, pasta, beer….). Breakfast Buffet was outstanding as well - just go early to beat the rush.  The hotel has a gym, pool and a sports court. The area around is a corporate which is fine by me. There were some shops and fast food with in walking distance if needed. The parking lot is a tight fit for Texas sized cars but not a major issue. Running in the area is fine as well as there were nice sidewalks and the area was deserted out side the 9-5 hours. I would stay here again, just watch the parking lots for mini vans or Suburban's with writing on the windows!More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d223642-r1741801-Staybridge_Suites_Dallas_Las_Colinas_Area-Irving_Texas.html</t>
@@ -2666,43 +2936,47 @@
       <c r="A2" t="n">
         <v>39207</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177996</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2716,50 +2990,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39207</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>87179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2773,50 +3051,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39207</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>177997</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2830,41 +3112,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39207</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -2883,50 +3169,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39207</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>5315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2940,50 +3230,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39207</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>48855</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2999,56 +3293,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39207</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3060,56 +3358,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39207</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>21553</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3127,56 +3429,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39207</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>12238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3194,50 +3500,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39207</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3251,50 +3561,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39207</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3312,50 +3626,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39207</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>27855</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>126</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>116</v>
-      </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3369,50 +3687,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39207</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>640</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3428,56 +3750,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="X14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39207</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3495,56 +3821,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39207</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178003</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3560,56 +3890,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39207</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178004</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3621,56 +3955,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39207</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178005</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3690,50 +4028,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39207</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178006</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3747,50 +4089,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39207</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178007</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3802,56 +4148,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39207</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178008</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O21" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3869,50 +4219,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39207</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178009</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3924,56 +4278,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39207</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>18895</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3987,50 +4345,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39207</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178010</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4044,50 +4406,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39207</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178011</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4101,50 +4467,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39207</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178012</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4162,50 +4532,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39207</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>3031</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4225,50 +4599,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39207</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4286,50 +4664,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39207</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>255</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4343,50 +4725,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39207</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178014</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4404,50 +4790,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39207</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O31" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4461,50 +4851,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39207</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>14524</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4522,56 +4916,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="X32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="Y32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39207</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178015</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O33" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4583,56 +4981,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="X33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39207</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178016</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O34" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4650,56 +5052,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="X34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="Y34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39207</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>86031</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4717,56 +5123,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="X35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="Y35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39207</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>37596</v>
+      </c>
+      <c r="C36" t="s">
+        <v>312</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4778,56 +5188,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="X36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39207</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178017</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4845,56 +5259,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39207</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178018</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4912,56 +5330,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="X38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39207</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178012</v>
+      </c>
+      <c r="C39" t="s">
+        <v>255</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4973,56 +5395,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="X39" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Y39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39207</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>14079</v>
+      </c>
+      <c r="C40" t="s">
+        <v>351</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="J40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5038,56 +5464,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="X40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Y40" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39207</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178019</v>
+      </c>
+      <c r="C41" t="s">
+        <v>361</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5103,56 +5533,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="X41" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="Y41" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39207</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>14907</v>
+      </c>
+      <c r="C42" t="s">
+        <v>371</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5170,56 +5604,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="X42" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39207</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178020</v>
+      </c>
+      <c r="C43" t="s">
+        <v>381</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5231,56 +5669,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="X43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Y43" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39207</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178021</v>
+      </c>
+      <c r="C44" t="s">
+        <v>390</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5292,56 +5734,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="X44" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="Y44" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39207</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178022</v>
+      </c>
+      <c r="C45" t="s">
+        <v>400</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="J45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="K45" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O45" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5359,56 +5805,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="X45" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39207</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178023</v>
+      </c>
+      <c r="C46" t="s">
+        <v>409</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O46" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5426,56 +5876,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="X46" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="Y46" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39207</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>42990</v>
+      </c>
+      <c r="C47" t="s">
+        <v>418</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="J47" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="L47" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="O47" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5487,56 +5941,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="X47" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39207</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178024</v>
+      </c>
+      <c r="C48" t="s">
+        <v>428</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="O48" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5548,56 +6006,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="X48" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="Y48" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39207</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5609,56 +6071,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="X49" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="Y49" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39207</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178025</v>
+      </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5676,56 +6142,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="X50" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="Y50" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39207</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178026</v>
+      </c>
+      <c r="C51" t="s">
+        <v>456</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="J51" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="L51" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O51" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5743,56 +6213,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="X51" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="Y51" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39207</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178027</v>
+      </c>
+      <c r="C52" t="s">
+        <v>466</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="J52" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="K52" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="L52" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="O52" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5808,56 +6282,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="X52" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="Y52" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39207</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>18985</v>
+      </c>
+      <c r="C53" t="s">
+        <v>475</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="J53" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="K53" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="L53" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="O53" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5875,56 +6353,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="X53" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="Y53" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39207</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>41197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>485</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="J54" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="K54" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="L54" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="O54" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5942,56 +6424,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="X54" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="Y54" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39207</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178028</v>
+      </c>
+      <c r="C55" t="s">
+        <v>495</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="J55" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="K55" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="L55" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6003,56 +6489,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="X55" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="Y55" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39207</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178029</v>
+      </c>
+      <c r="C56" t="s">
+        <v>505</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="J56" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="K56" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="L56" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="O56" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6070,56 +6560,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="X56" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="Y56" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39207</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>92159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>515</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="J57" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="K57" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="L57" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="O57" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6135,56 +6629,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="X57" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="Y57" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39207</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178030</v>
+      </c>
+      <c r="C58" t="s">
+        <v>524</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="J58" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="K58" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="L58" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6200,47 +6698,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="X58" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="Y58" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39207</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178031</v>
+      </c>
+      <c r="C59" t="s">
+        <v>531</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="J59" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="K59" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="L59" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -6267,56 +6769,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="X59" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="Y59" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39207</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>508</v>
+      </c>
+      <c r="C60" t="s">
+        <v>540</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="J60" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="K60" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="L60" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="O60" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6334,56 +6840,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="X60" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="Y60" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39207</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178032</v>
+      </c>
+      <c r="C61" t="s">
+        <v>549</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="J61" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="K61" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="L61" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6395,56 +6905,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="X61" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="Y61" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39207</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178033</v>
+      </c>
+      <c r="C62" t="s">
+        <v>558</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="J62" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="K62" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="L62" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="O62" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6466,56 +6980,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="X62" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="Y62" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39207</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>21893</v>
+      </c>
+      <c r="C63" t="s">
+        <v>568</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="J63" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="K63" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="L63" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="O63" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6537,56 +7055,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="X63" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="Y63" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39207</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>178034</v>
+      </c>
+      <c r="C64" t="s">
+        <v>578</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="J64" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="K64" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="L64" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="O64" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6608,56 +7130,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="X64" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="Y64" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39207</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178035</v>
+      </c>
+      <c r="C65" t="s">
+        <v>587</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="J65" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="K65" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="L65" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="O65" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6681,50 +7207,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39207</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178036</v>
+      </c>
+      <c r="C66" t="s">
+        <v>594</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="J66" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="K66" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="L66" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6746,47 +7276,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="X66" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="Y66" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39207</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C67" t="s">
+        <v>604</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="J67" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="K67" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="L67" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -6813,47 +7347,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="X67" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="Y67" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39207</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>178037</v>
+      </c>
+      <c r="C68" t="s">
+        <v>611</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="J68" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="K68" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="L68" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
@@ -6882,50 +7420,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39207</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>543</v>
+      </c>
+      <c r="C69" t="s">
+        <v>617</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="J69" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="K69" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="L69" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6949,50 +7491,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39207</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>178038</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="J70" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="K70" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="L70" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="O70" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7014,56 +7560,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="X70" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="Y70" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39207</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C71" t="s">
+        <v>634</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="J71" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="K71" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="L71" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="O71" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7087,50 +7637,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39207</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>178039</v>
+      </c>
+      <c r="C72" t="s">
+        <v>641</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="J72" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="K72" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="L72" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="O72" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7144,50 +7698,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39207</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>178040</v>
+      </c>
+      <c r="C73" t="s">
+        <v>648</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="J73" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="K73" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="L73" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="O73" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7211,41 +7769,45 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39207</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>178041</v>
+      </c>
+      <c r="C74" t="s">
+        <v>654</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="J74" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="K74" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="L74" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
@@ -7274,50 +7836,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39207</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>40656</v>
+      </c>
+      <c r="C75" t="s">
+        <v>660</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="J75" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="K75" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="L75" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="O75" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7341,41 +7907,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39207</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>178042</v>
+      </c>
+      <c r="C76" t="s">
+        <v>667</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>594</v>
+        <v>668</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="J76" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="K76" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="L76" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7404,50 +7974,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>39207</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>18896</v>
+      </c>
+      <c r="C77" t="s">
+        <v>673</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="J77" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="K77" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="L77" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7469,56 +8043,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="X77" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="Y77" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>39207</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>178043</v>
+      </c>
+      <c r="C78" t="s">
+        <v>682</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>607</v>
+        <v>683</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
       <c r="J78" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="K78" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="L78" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7542,41 +8120,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>39207</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>178044</v>
+      </c>
+      <c r="C79" t="s">
+        <v>689</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="J79" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="K79" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="L79" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -7605,50 +8187,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>39207</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>29749</v>
+      </c>
+      <c r="C80" t="s">
+        <v>695</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="J80" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="K80" t="s">
-        <v>621</v>
+        <v>699</v>
       </c>
       <c r="L80" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="O80" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7672,50 +8258,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>39207</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>520</v>
+      </c>
+      <c r="C81" t="s">
+        <v>703</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>625</v>
+        <v>704</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>626</v>
+        <v>705</v>
       </c>
       <c r="J81" t="s">
-        <v>627</v>
+        <v>706</v>
       </c>
       <c r="K81" t="s">
-        <v>628</v>
+        <v>707</v>
       </c>
       <c r="L81" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7739,41 +8329,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>630</v>
+        <v>709</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>39207</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>94185</v>
+      </c>
+      <c r="C82" t="s">
+        <v>710</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>631</v>
+        <v>711</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="J82" t="s">
-        <v>633</v>
+        <v>713</v>
       </c>
       <c r="K82" t="s">
-        <v>634</v>
+        <v>714</v>
       </c>
       <c r="L82" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -7802,50 +8396,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>39207</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>178045</v>
+      </c>
+      <c r="C83" t="s">
+        <v>716</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="J83" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="K83" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="L83" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="O83" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7869,50 +8467,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>39207</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>178046</v>
+      </c>
+      <c r="C84" t="s">
+        <v>723</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="J84" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="K84" t="s">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="L84" t="s">
-        <v>646</v>
+        <v>728</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="O84" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7936,50 +8538,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>39207</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>40866</v>
+      </c>
+      <c r="C85" t="s">
+        <v>730</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>649</v>
+        <v>732</v>
       </c>
       <c r="J85" t="s">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="K85" t="s">
-        <v>651</v>
+        <v>734</v>
       </c>
       <c r="L85" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="O85" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8003,50 +8609,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>39207</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>178047</v>
+      </c>
+      <c r="C86" t="s">
+        <v>737</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="J86" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="K86" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="L86" t="s">
-        <v>658</v>
+        <v>742</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>659</v>
+        <v>743</v>
       </c>
       <c r="O86" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8070,50 +8680,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>660</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>39207</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>178048</v>
+      </c>
+      <c r="C87" t="s">
+        <v>745</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="J87" t="s">
-        <v>663</v>
+        <v>748</v>
       </c>
       <c r="K87" t="s">
-        <v>664</v>
+        <v>749</v>
       </c>
       <c r="L87" t="s">
-        <v>665</v>
+        <v>750</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>666</v>
+        <v>751</v>
       </c>
       <c r="O87" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P87" t="n">
         <v>2</v>
@@ -8137,50 +8751,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>667</v>
+        <v>752</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>39207</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>178049</v>
+      </c>
+      <c r="C88" t="s">
+        <v>753</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>668</v>
+        <v>754</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="J88" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
       <c r="K88" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="L88" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>673</v>
+        <v>759</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8204,50 +8822,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>674</v>
+        <v>760</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>39207</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>178050</v>
+      </c>
+      <c r="C89" t="s">
+        <v>761</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>676</v>
+        <v>763</v>
       </c>
       <c r="J89" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
       <c r="K89" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="L89" t="s">
-        <v>679</v>
+        <v>766</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>680</v>
+        <v>767</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8271,50 +8893,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>681</v>
+        <v>768</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>39207</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>178051</v>
+      </c>
+      <c r="C90" t="s">
+        <v>769</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>682</v>
+        <v>770</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="J90" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="K90" t="s">
-        <v>685</v>
+        <v>773</v>
       </c>
       <c r="L90" t="s">
-        <v>686</v>
+        <v>774</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>687</v>
+        <v>775</v>
       </c>
       <c r="O90" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8338,50 +8964,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>688</v>
+        <v>776</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>39207</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>178052</v>
+      </c>
+      <c r="C91" t="s">
+        <v>777</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>689</v>
+        <v>778</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>690</v>
+        <v>779</v>
       </c>
       <c r="J91" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
       <c r="K91" t="s">
-        <v>692</v>
+        <v>781</v>
       </c>
       <c r="L91" t="s">
-        <v>693</v>
+        <v>782</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>694</v>
+        <v>783</v>
       </c>
       <c r="O91" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8405,41 +9035,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>695</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>39207</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>785</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>696</v>
+        <v>786</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="J92" t="s">
-        <v>698</v>
+        <v>788</v>
       </c>
       <c r="K92" t="s">
-        <v>699</v>
+        <v>789</v>
       </c>
       <c r="L92" t="s">
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -8458,7 +9092,7 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>701</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
